--- a/Experimentos/teste_geral/Dataset6/statistic_average_fitness.xlsx
+++ b/Experimentos/teste_geral/Dataset6/statistic_average_fitness.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\ESCOLA\2ano\2semestre\INTELIGENCIA-ARTIFICIAL\projeto-IA\Experimentos\teste_geral\Dataset6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0971DA5-E195-4622-A3FE-01779D44F838}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF54A711-8DFC-4F98-A8A7-0A3854A5675C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="2850" yWindow="2850" windowWidth="14400" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="statistic_average_fitness" sheetId="1" r:id="rId1"/>
@@ -61,12 +61,6 @@
     <t>Swap</t>
   </si>
   <si>
-    <t>Scrumble</t>
-  </si>
-  <si>
-    <t>Inversion</t>
-  </si>
-  <si>
     <t>OX1</t>
   </si>
   <si>
@@ -90,11 +84,17 @@
   <si>
     <t>PUZZLE 6 - AVERAGE FITNESS</t>
   </si>
+  <si>
+    <t>Inversion</t>
+  </si>
+  <si>
+    <t>Scramble</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -644,24 +644,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A2:L258" totalsRowShown="0">
-  <autoFilter ref="A2:L258"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A2:L258" totalsRowShown="0">
+  <autoFilter ref="A2:L258" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:L258">
     <sortCondition ref="I2:I258"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" name="Population size:"/>
-    <tableColumn id="2" name="Max generations:"/>
-    <tableColumn id="3" name="Selection:"/>
-    <tableColumn id="4" name="Recombination:"/>
-    <tableColumn id="5" name="Recombination prob,:"/>
-    <tableColumn id="6" name="Mutation:"/>
-    <tableColumn id="7" name="Mutation prob,:"/>
-    <tableColumn id="8" name="Coluna1"/>
-    <tableColumn id="9" name="Average:"/>
-    <tableColumn id="10" name="StdDev:"/>
-    <tableColumn id="11" name="Time Best av:"/>
-    <tableColumn id="12" name="Time Total av:"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Population size:"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Max generations:"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Selection:"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Recombination:"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Recombination prob,:"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Mutation:"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Mutation prob,:"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Coluna1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Average:"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="StdDev:"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Time Best av:"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Time Total av:"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -963,11 +963,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L258"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="A131" sqref="A131:L258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,7 +988,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1016,16 +1016,16 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
         <v>5</v>
@@ -1121,7 +1121,7 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0.8</v>
@@ -1188,7 +1188,7 @@
         <v>2000</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -1226,7 +1226,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0.7</v>
@@ -1258,10 +1258,10 @@
         <v>2000</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0.8</v>
@@ -1328,7 +1328,7 @@
         <v>2000</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -1401,7 +1401,7 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>0.8</v>
@@ -1433,10 +1433,10 @@
         <v>2000</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>0.8</v>
@@ -1468,10 +1468,10 @@
         <v>2000</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>0.7</v>
@@ -1506,7 +1506,7 @@
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>0.7</v>
@@ -1538,10 +1538,10 @@
         <v>2000</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E17">
         <v>0.7</v>
@@ -1576,7 +1576,7 @@
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>0.7</v>
@@ -1608,10 +1608,10 @@
         <v>2000</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E19">
         <v>0.7</v>
@@ -1643,10 +1643,10 @@
         <v>2000</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E20">
         <v>0.7</v>
@@ -1678,10 +1678,10 @@
         <v>2000</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E21">
         <v>0.8</v>
@@ -1751,7 +1751,7 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E23">
         <v>0.7</v>
@@ -1783,10 +1783,10 @@
         <v>2000</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E24">
         <v>0.8</v>
@@ -1821,7 +1821,7 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E25">
         <v>0.8</v>
@@ -1853,7 +1853,7 @@
         <v>2000</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
         <v>10</v>
@@ -1888,10 +1888,10 @@
         <v>2000</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E27">
         <v>0.7</v>
@@ -1958,7 +1958,7 @@
         <v>2000</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D29" t="s">
         <v>10</v>
@@ -1996,7 +1996,7 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E30">
         <v>0.8</v>
@@ -2063,10 +2063,10 @@
         <v>2000</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E32">
         <v>0.7</v>
@@ -2098,10 +2098,10 @@
         <v>2000</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E33">
         <v>0.7</v>
@@ -2133,7 +2133,7 @@
         <v>2000</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D34" t="s">
         <v>10</v>
@@ -2168,7 +2168,7 @@
         <v>2000</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D35" t="s">
         <v>10</v>
@@ -2203,7 +2203,7 @@
         <v>2000</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D36" t="s">
         <v>10</v>
@@ -2238,7 +2238,7 @@
         <v>2000</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D37" t="s">
         <v>10</v>
@@ -2273,10 +2273,10 @@
         <v>2000</v>
       </c>
       <c r="C38" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E38">
         <v>0.8</v>
@@ -2308,10 +2308,10 @@
         <v>2000</v>
       </c>
       <c r="C39" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E39">
         <v>0.8</v>
@@ -2343,10 +2343,10 @@
         <v>2000</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E40">
         <v>0.8</v>
@@ -2378,10 +2378,10 @@
         <v>2000</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E41">
         <v>0.8</v>
@@ -2413,10 +2413,10 @@
         <v>2000</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E42">
         <v>0.7</v>
@@ -2448,10 +2448,10 @@
         <v>2000</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E43">
         <v>0.7</v>
@@ -2483,10 +2483,10 @@
         <v>2000</v>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E44">
         <v>0.7</v>
@@ -2518,10 +2518,10 @@
         <v>2000</v>
       </c>
       <c r="C45" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E45">
         <v>0.7</v>
@@ -2553,10 +2553,10 @@
         <v>2000</v>
       </c>
       <c r="C46" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E46">
         <v>0.7</v>
@@ -2588,10 +2588,10 @@
         <v>2000</v>
       </c>
       <c r="C47" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E47">
         <v>0.8</v>
@@ -2623,10 +2623,10 @@
         <v>2000</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E48">
         <v>0.8</v>
@@ -2661,28 +2661,28 @@
         <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E49">
         <v>0.8</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G49">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I49">
-        <v>839.28</v>
+        <v>820.48</v>
       </c>
       <c r="J49">
-        <v>20.539756571098799</v>
+        <v>16.490288050849799</v>
       </c>
       <c r="K49">
-        <v>12635.4</v>
+        <v>7521.6</v>
       </c>
       <c r="L49">
-        <v>13655.04</v>
+        <v>10093.4</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -2696,28 +2696,28 @@
         <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E50">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G50">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I50">
-        <v>845.28</v>
+        <v>824.8</v>
       </c>
       <c r="J50">
-        <v>19.269706795901101</v>
+        <v>15.6920361967464</v>
       </c>
       <c r="K50">
-        <v>8770.86</v>
+        <v>7859.7</v>
       </c>
       <c r="L50">
-        <v>11513.74</v>
+        <v>9913</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -2734,25 +2734,25 @@
         <v>10</v>
       </c>
       <c r="E51">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G51">
         <v>0.2</v>
       </c>
       <c r="I51">
-        <v>845.6</v>
+        <v>830.6</v>
       </c>
       <c r="J51">
-        <v>18</v>
+        <v>20.444070044880899</v>
       </c>
       <c r="K51">
-        <v>11200.22</v>
+        <v>7322.5</v>
       </c>
       <c r="L51">
-        <v>12303.54</v>
+        <v>9063.94</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -2766,28 +2766,28 @@
         <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E52">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G52">
         <v>0.2</v>
       </c>
       <c r="I52">
-        <v>846.6</v>
+        <v>830.68</v>
       </c>
       <c r="J52">
-        <v>20.904544960366799</v>
+        <v>20.8484435869922</v>
       </c>
       <c r="K52">
-        <v>9408.06</v>
+        <v>7537.32</v>
       </c>
       <c r="L52">
-        <v>10163.5</v>
+        <v>8997.32</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -2801,28 +2801,28 @@
         <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E53">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G53">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I53">
-        <v>859.08</v>
+        <v>831.68</v>
       </c>
       <c r="J53">
-        <v>23.124739998538299</v>
+        <v>18.275054035487798</v>
       </c>
       <c r="K53">
-        <v>10917.92</v>
+        <v>8701.5400000000009</v>
       </c>
       <c r="L53">
-        <v>12054.78</v>
+        <v>9811.2000000000007</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -2836,33 +2836,33 @@
         <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E54">
         <v>0.7</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G54">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I54">
-        <v>867.44</v>
+        <v>840.8</v>
       </c>
       <c r="J54">
-        <v>23.613690944026501</v>
+        <v>20.6881608655771</v>
       </c>
       <c r="K54">
-        <v>7079.14</v>
+        <v>9114.2000000000007</v>
       </c>
       <c r="L54">
-        <v>8958.66</v>
+        <v>9945.76</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B55">
         <v>2000</v>
@@ -2871,28 +2871,28 @@
         <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E55">
         <v>0.8</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G55">
         <v>0.2</v>
       </c>
       <c r="I55">
-        <v>870.8</v>
+        <v>843.2</v>
       </c>
       <c r="J55">
-        <v>24.069898213328599</v>
+        <v>18.150482087261398</v>
       </c>
       <c r="K55">
-        <v>5123.74</v>
+        <v>8261.08</v>
       </c>
       <c r="L55">
-        <v>5495.42</v>
+        <v>9285.1</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -2903,31 +2903,31 @@
         <v>2000</v>
       </c>
       <c r="C56" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E56">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G56">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I56">
-        <v>874.36</v>
+        <v>844.84</v>
       </c>
       <c r="J56">
-        <v>20.363457466746599</v>
+        <v>23.3583903555018</v>
       </c>
       <c r="K56">
-        <v>9132.58</v>
+        <v>8388.68</v>
       </c>
       <c r="L56">
-        <v>9677.3799999999992</v>
+        <v>9432.86</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -2941,28 +2941,28 @@
         <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E57">
         <v>0.8</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G57">
         <v>0.2</v>
       </c>
       <c r="I57">
-        <v>881.32</v>
+        <v>845.28</v>
       </c>
       <c r="J57">
-        <v>21.9074781752715</v>
+        <v>19.269706795901101</v>
       </c>
       <c r="K57">
-        <v>12367.28</v>
+        <v>8770.86</v>
       </c>
       <c r="L57">
-        <v>13559.32</v>
+        <v>11513.74</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -2973,31 +2973,31 @@
         <v>2000</v>
       </c>
       <c r="C58" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
         <v>10</v>
       </c>
       <c r="E58">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F58" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G58">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I58">
-        <v>883.88</v>
+        <v>848.4</v>
       </c>
       <c r="J58">
-        <v>22.1933683788648</v>
+        <v>18.1989010657237</v>
       </c>
       <c r="K58">
-        <v>9305.86</v>
+        <v>7431.48</v>
       </c>
       <c r="L58">
-        <v>10264.4</v>
+        <v>8692.9</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -3008,36 +3008,36 @@
         <v>2000</v>
       </c>
       <c r="C59" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E59">
         <v>0.7</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G59">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I59">
-        <v>884.96</v>
+        <v>850.76</v>
       </c>
       <c r="J59">
-        <v>26.0499213050634</v>
+        <v>21.8133537082219</v>
       </c>
       <c r="K59">
-        <v>9172.18</v>
+        <v>7519.28</v>
       </c>
       <c r="L59">
-        <v>9674.7999999999993</v>
+        <v>8754.52</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B60">
         <v>2000</v>
@@ -3052,22 +3052,22 @@
         <v>0.7</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G60">
         <v>0.2</v>
       </c>
       <c r="I60">
-        <v>885.4</v>
+        <v>867.44</v>
       </c>
       <c r="J60">
-        <v>20.808652046684799</v>
+        <v>23.613690944026501</v>
       </c>
       <c r="K60">
-        <v>4966.72</v>
+        <v>7079.14</v>
       </c>
       <c r="L60">
-        <v>5380.68</v>
+        <v>8958.66</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -3081,28 +3081,28 @@
         <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E61">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G61">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I61">
-        <v>886.4</v>
+        <v>877.44</v>
       </c>
       <c r="J61">
-        <v>23.627103080995699</v>
+        <v>18.7660970902316</v>
       </c>
       <c r="K61">
-        <v>4877.42</v>
+        <v>4602.26</v>
       </c>
       <c r="L61">
-        <v>5248.44</v>
+        <v>6481.96</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -3116,33 +3116,33 @@
         <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E62">
         <v>0.8</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G62">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I62">
-        <v>888.52</v>
+        <v>878.4</v>
       </c>
       <c r="J62">
-        <v>23.825398212831601</v>
+        <v>17.412639087743099</v>
       </c>
       <c r="K62">
-        <v>5051.96</v>
+        <v>4769.26</v>
       </c>
       <c r="L62">
-        <v>5472.98</v>
+        <v>5984.48</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B63">
         <v>2000</v>
@@ -3151,28 +3151,28 @@
         <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E63">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G63">
         <v>0.2</v>
       </c>
       <c r="I63">
-        <v>892.84</v>
+        <v>879.28</v>
       </c>
       <c r="J63">
-        <v>22.919301909089601</v>
+        <v>24.6860608441282</v>
       </c>
       <c r="K63">
-        <v>4921.8599999999997</v>
+        <v>7126.12</v>
       </c>
       <c r="L63">
-        <v>5222.9799999999996</v>
+        <v>9325.26</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -3186,28 +3186,28 @@
         <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E64">
         <v>0.8</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G64">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I64">
-        <v>896.48</v>
+        <v>879.48</v>
       </c>
       <c r="J64">
-        <v>28.209388508083599</v>
+        <v>22.0719188110141</v>
       </c>
       <c r="K64">
-        <v>4242.42</v>
+        <v>5544.42</v>
       </c>
       <c r="L64">
-        <v>5259.06</v>
+        <v>6451</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -3218,66 +3218,66 @@
         <v>2000</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D65" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E65">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G65">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I65">
-        <v>897.92</v>
+        <v>881.48</v>
       </c>
       <c r="J65">
-        <v>19.713792126326101</v>
+        <v>25.8853163009456</v>
       </c>
       <c r="K65">
-        <v>9411.6</v>
+        <v>8986.4599999999991</v>
       </c>
       <c r="L65">
-        <v>10085</v>
+        <v>10071.879999999999</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B66">
         <v>2000</v>
       </c>
       <c r="C66" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
         <v>10</v>
       </c>
       <c r="E66">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F66" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G66">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I66">
-        <v>901.48</v>
+        <v>886.12</v>
       </c>
       <c r="J66">
-        <v>25.294457891008399</v>
+        <v>24.250063917441501</v>
       </c>
       <c r="K66">
-        <v>8411.8799999999992</v>
+        <v>5395.56</v>
       </c>
       <c r="L66">
-        <v>9262.94</v>
+        <v>6322.58</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -3291,28 +3291,28 @@
         <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E67">
         <v>0.7</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G67">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I67">
-        <v>906.4</v>
+        <v>888.04</v>
       </c>
       <c r="J67">
-        <v>29.440108695451499</v>
+        <v>24.276704883488598</v>
       </c>
       <c r="K67">
-        <v>5008.9799999999996</v>
+        <v>6089.66</v>
       </c>
       <c r="L67">
-        <v>5394.04</v>
+        <v>6883.7</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -3323,7 +3323,7 @@
         <v>2000</v>
       </c>
       <c r="C68" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D68" t="s">
         <v>10</v>
@@ -3332,27 +3332,27 @@
         <v>0.8</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G68">
         <v>0.4</v>
       </c>
       <c r="I68">
-        <v>907.72</v>
+        <v>888.12</v>
       </c>
       <c r="J68">
-        <v>23.6981349477126</v>
+        <v>30.9203104770957</v>
       </c>
       <c r="K68">
-        <v>9046.58</v>
+        <v>9415.18</v>
       </c>
       <c r="L68">
-        <v>10350</v>
+        <v>10951.72</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B69">
         <v>2000</v>
@@ -3361,28 +3361,28 @@
         <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E69">
         <v>0.8</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G69">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I69">
-        <v>907.84</v>
+        <v>888.28</v>
       </c>
       <c r="J69">
-        <v>26.592750891925402</v>
+        <v>25.833342795697099</v>
       </c>
       <c r="K69">
-        <v>5604</v>
+        <v>5686.36</v>
       </c>
       <c r="L69">
-        <v>9639.7999999999993</v>
+        <v>6148.36</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -3399,25 +3399,25 @@
         <v>10</v>
       </c>
       <c r="E70">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G70">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I70">
-        <v>917.24</v>
+        <v>888.32</v>
       </c>
       <c r="J70">
-        <v>51.657162136532399</v>
+        <v>27.103829987660401</v>
       </c>
       <c r="K70">
-        <v>5160.5600000000004</v>
+        <v>5156.0600000000004</v>
       </c>
       <c r="L70">
-        <v>5853.7</v>
+        <v>6310.5</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -3431,28 +3431,28 @@
         <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E71">
         <v>0.7</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G71">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I71">
-        <v>917.64</v>
+        <v>892.8</v>
       </c>
       <c r="J71">
-        <v>27.1401989675831</v>
+        <v>25.348767228407699</v>
       </c>
       <c r="K71">
-        <v>5504.12</v>
+        <v>6949.38</v>
       </c>
       <c r="L71">
-        <v>9901.94</v>
+        <v>9203.3799999999992</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -3463,7 +3463,7 @@
         <v>2000</v>
       </c>
       <c r="C72" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D72" t="s">
         <v>10</v>
@@ -3472,22 +3472,22 @@
         <v>0.8</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G72">
         <v>0.4</v>
       </c>
       <c r="I72">
-        <v>917.8</v>
+        <v>893.2</v>
       </c>
       <c r="J72">
-        <v>33.176497705453997</v>
+        <v>28.802777643831501</v>
       </c>
       <c r="K72">
-        <v>7020.12</v>
+        <v>8389.0400000000009</v>
       </c>
       <c r="L72">
-        <v>9619.5</v>
+        <v>10381.120000000001</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -3498,66 +3498,66 @@
         <v>2000</v>
       </c>
       <c r="C73" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E73">
         <v>0.8</v>
       </c>
       <c r="F73" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G73">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I73">
-        <v>920.52</v>
+        <v>896.48</v>
       </c>
       <c r="J73">
-        <v>25.357633959027002</v>
+        <v>28.209388508083599</v>
       </c>
       <c r="K73">
-        <v>5136.68</v>
+        <v>4242.42</v>
       </c>
       <c r="L73">
-        <v>5473.88</v>
+        <v>5259.06</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B74">
         <v>2000</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E74">
         <v>0.7</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G74">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I74">
-        <v>921.72</v>
+        <v>897.32</v>
       </c>
       <c r="J74">
-        <v>22.627452353280901</v>
+        <v>27.924498204981202</v>
       </c>
       <c r="K74">
-        <v>4485.3599999999997</v>
+        <v>8347.94</v>
       </c>
       <c r="L74">
-        <v>5785.76</v>
+        <v>9477.5</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -3571,39 +3571,39 @@
         <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E75">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G75">
         <v>0.2</v>
       </c>
       <c r="I75">
-        <v>922.04</v>
+        <v>897.44</v>
       </c>
       <c r="J75">
-        <v>24.551953079134002</v>
+        <v>33.1494555008072</v>
       </c>
       <c r="K75">
-        <v>4788.3999999999996</v>
+        <v>6094.5</v>
       </c>
       <c r="L75">
-        <v>5230.46</v>
+        <v>6615.2</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B76">
         <v>2000</v>
       </c>
       <c r="C76" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
         <v>10</v>
@@ -3612,33 +3612,33 @@
         <v>0.7</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G76">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I76">
-        <v>922.64</v>
+        <v>901.56</v>
       </c>
       <c r="J76">
-        <v>23.462105617356599</v>
+        <v>27.394276774538099</v>
       </c>
       <c r="K76">
-        <v>8790.94</v>
+        <v>5115.8599999999997</v>
       </c>
       <c r="L76">
-        <v>9756.52</v>
+        <v>6055</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B77">
         <v>2000</v>
       </c>
       <c r="C77" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
         <v>10</v>
@@ -3647,22 +3647,22 @@
         <v>0.7</v>
       </c>
       <c r="F77" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G77">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I77">
-        <v>923.52</v>
+        <v>902.16</v>
       </c>
       <c r="J77">
-        <v>24.6918934065413</v>
+        <v>22.191313615917299</v>
       </c>
       <c r="K77">
-        <v>6232.26</v>
+        <v>5212.24</v>
       </c>
       <c r="L77">
-        <v>8735.32</v>
+        <v>6245.34</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -3673,101 +3673,101 @@
         <v>2000</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D78" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E78">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G78">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I78">
-        <v>923.84</v>
+        <v>905.44</v>
       </c>
       <c r="J78">
-        <v>24.773663435188499</v>
+        <v>31.424932776379901</v>
       </c>
       <c r="K78">
-        <v>3613.54</v>
+        <v>8575.7199999999993</v>
       </c>
       <c r="L78">
-        <v>9565.1200000000008</v>
+        <v>10252.94</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B79">
         <v>2000</v>
       </c>
       <c r="C79" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E79">
         <v>0.8</v>
       </c>
       <c r="F79" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G79">
         <v>0.4</v>
       </c>
       <c r="I79">
-        <v>924.68</v>
+        <v>907.84</v>
       </c>
       <c r="J79">
-        <v>23.908525676000998</v>
+        <v>26.592750891925402</v>
       </c>
       <c r="K79">
-        <v>4476.3999999999996</v>
+        <v>5604</v>
       </c>
       <c r="L79">
-        <v>4898.4399999999996</v>
+        <v>9639.7999999999993</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B80">
         <v>2000</v>
       </c>
       <c r="C80" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D80" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E80">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G80">
         <v>0.4</v>
       </c>
       <c r="I80">
-        <v>927.84</v>
+        <v>912.24</v>
       </c>
       <c r="J80">
-        <v>64.571002779885603</v>
+        <v>26.959643914562299</v>
       </c>
       <c r="K80">
-        <v>2980.52</v>
+        <v>7756.84</v>
       </c>
       <c r="L80">
-        <v>4607.84</v>
+        <v>9306.76</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -3778,36 +3778,36 @@
         <v>2000</v>
       </c>
       <c r="C81" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D81" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E81">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F81" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G81">
         <v>0.4</v>
       </c>
       <c r="I81">
-        <v>932.96</v>
+        <v>915.08</v>
       </c>
       <c r="J81">
-        <v>29.304579846843001</v>
+        <v>31.440636125880101</v>
       </c>
       <c r="K81">
-        <v>4999.92</v>
+        <v>4319.78</v>
       </c>
       <c r="L81">
-        <v>5358.64</v>
+        <v>4722.16</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B82">
         <v>2000</v>
@@ -3816,7 +3816,7 @@
         <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E82">
         <v>0.7</v>
@@ -3825,19 +3825,19 @@
         <v>11</v>
       </c>
       <c r="G82">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I82">
-        <v>938.6</v>
+        <v>917.24</v>
       </c>
       <c r="J82">
-        <v>30.5057371653267</v>
+        <v>51.657162136532399</v>
       </c>
       <c r="K82">
-        <v>5082.18</v>
+        <v>5160.5600000000004</v>
       </c>
       <c r="L82">
-        <v>9926.18</v>
+        <v>5853.7</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -3848,48 +3848,48 @@
         <v>2000</v>
       </c>
       <c r="C83" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E83">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G83">
         <v>0.4</v>
       </c>
       <c r="I83">
-        <v>939.28</v>
+        <v>917.64</v>
       </c>
       <c r="J83">
-        <v>24.876527088804</v>
+        <v>27.1401989675831</v>
       </c>
       <c r="K83">
-        <v>9010.4599999999991</v>
+        <v>5504.12</v>
       </c>
       <c r="L83">
-        <v>9642.16</v>
+        <v>9901.94</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B84">
         <v>2000</v>
       </c>
       <c r="C84" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D84" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E84">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F84" t="s">
         <v>11</v>
@@ -3898,86 +3898,86 @@
         <v>0.4</v>
       </c>
       <c r="I84">
-        <v>939.92</v>
+        <v>917.8</v>
       </c>
       <c r="J84">
-        <v>30.238941780426099</v>
+        <v>33.176497705453997</v>
       </c>
       <c r="K84">
-        <v>3302.56</v>
+        <v>7020.12</v>
       </c>
       <c r="L84">
-        <v>4526.4399999999996</v>
+        <v>9619.5</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B85">
         <v>2000</v>
       </c>
       <c r="C85" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E85">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F85" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G85">
         <v>0.4</v>
       </c>
       <c r="I85">
-        <v>940.84</v>
+        <v>919.56</v>
       </c>
       <c r="J85">
-        <v>25.622146670409901</v>
+        <v>29.3456368136729</v>
       </c>
       <c r="K85">
-        <v>4684.12</v>
+        <v>6436.98</v>
       </c>
       <c r="L85">
-        <v>5248.6</v>
+        <v>9949.16</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B86">
         <v>2000</v>
       </c>
       <c r="C86" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E86">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G86">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I86">
-        <v>942.16</v>
+        <v>921.32</v>
       </c>
       <c r="J86">
-        <v>31.6880797777334</v>
+        <v>29.4009795755175</v>
       </c>
       <c r="K86">
-        <v>3327.68</v>
+        <v>3153.64</v>
       </c>
       <c r="L86">
-        <v>9489.94</v>
+        <v>4281.28</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -3991,63 +3991,63 @@
         <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E87">
         <v>0.7</v>
       </c>
       <c r="F87" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G87">
         <v>0.2</v>
       </c>
       <c r="I87">
-        <v>944.4</v>
+        <v>921.72</v>
       </c>
       <c r="J87">
-        <v>23.2551069659978</v>
+        <v>22.627452353280901</v>
       </c>
       <c r="K87">
-        <v>4782.78</v>
+        <v>4485.3599999999997</v>
       </c>
       <c r="L87">
-        <v>5225.9799999999996</v>
+        <v>5785.76</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B88">
         <v>2000</v>
       </c>
       <c r="C88" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E88">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F88" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G88">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I88">
-        <v>946.72</v>
+        <v>922.8</v>
       </c>
       <c r="J88">
-        <v>21.746760678317099</v>
+        <v>29.572960622839201</v>
       </c>
       <c r="K88">
-        <v>8869.2800000000007</v>
+        <v>4542.8999999999996</v>
       </c>
       <c r="L88">
-        <v>9605.92</v>
+        <v>5778.12</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -4058,31 +4058,31 @@
         <v>2000</v>
       </c>
       <c r="C89" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E89">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G89">
         <v>0.4</v>
       </c>
       <c r="I89">
-        <v>948.04</v>
+        <v>922.96</v>
       </c>
       <c r="J89">
-        <v>32.823138180253203</v>
+        <v>34.876330082163101</v>
       </c>
       <c r="K89">
-        <v>3544.38</v>
+        <v>3012.86</v>
       </c>
       <c r="L89">
-        <v>4644.32</v>
+        <v>4274.6000000000004</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -4093,13 +4093,13 @@
         <v>2000</v>
       </c>
       <c r="C90" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D90" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E90">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F90" t="s">
         <v>11</v>
@@ -4108,156 +4108,156 @@
         <v>0.4</v>
       </c>
       <c r="I90">
-        <v>952.52</v>
+        <v>923.52</v>
       </c>
       <c r="J90">
-        <v>33.635243421149703</v>
+        <v>24.6918934065413</v>
       </c>
       <c r="K90">
-        <v>4304.88</v>
+        <v>6232.26</v>
       </c>
       <c r="L90">
-        <v>9283.06</v>
+        <v>8735.32</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B91">
         <v>2000</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D91" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E91">
         <v>0.8</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G91">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I91">
-        <v>953.96</v>
+        <v>923.64</v>
       </c>
       <c r="J91">
-        <v>29.947928142026701</v>
+        <v>32.0416978326679</v>
       </c>
       <c r="K91">
-        <v>3489.76</v>
+        <v>5389.14</v>
       </c>
       <c r="L91">
-        <v>5178.5</v>
+        <v>9401.06</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B92">
         <v>2000</v>
       </c>
       <c r="C92" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E92">
         <v>0.8</v>
       </c>
       <c r="F92" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G92">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I92">
-        <v>954.72</v>
+        <v>923.84</v>
       </c>
       <c r="J92">
-        <v>27.5499836660568</v>
+        <v>24.773663435188499</v>
       </c>
       <c r="K92">
-        <v>4501.16</v>
+        <v>3613.54</v>
       </c>
       <c r="L92">
-        <v>4939.72</v>
+        <v>9565.1200000000008</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B93">
         <v>2000</v>
       </c>
       <c r="C93" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E93">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G93">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I93">
-        <v>959.08</v>
+        <v>927.84</v>
       </c>
       <c r="J93">
-        <v>36.422432648026103</v>
+        <v>64.571002779885603</v>
       </c>
       <c r="K93">
-        <v>3628.7</v>
+        <v>2980.52</v>
       </c>
       <c r="L93">
-        <v>8597.7199999999993</v>
+        <v>4607.84</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B94">
         <v>2000</v>
       </c>
       <c r="C94" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E94">
         <v>0.7</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G94">
         <v>0.4</v>
       </c>
       <c r="I94">
-        <v>965.28</v>
+        <v>928.12</v>
       </c>
       <c r="J94">
-        <v>35.563486893160501</v>
+        <v>27.5257261484597</v>
       </c>
       <c r="K94">
-        <v>3516</v>
+        <v>6023.34</v>
       </c>
       <c r="L94">
-        <v>4950.4399999999996</v>
+        <v>9957.18</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -4268,31 +4268,31 @@
         <v>2000</v>
       </c>
       <c r="C95" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E95">
         <v>0.7</v>
       </c>
       <c r="F95" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G95">
         <v>0.4</v>
       </c>
       <c r="I95">
-        <v>965.52</v>
+        <v>929.2</v>
       </c>
       <c r="J95">
-        <v>29.4280410493121</v>
+        <v>26.9607121567661</v>
       </c>
       <c r="K95">
-        <v>4789.68</v>
+        <v>4150.68</v>
       </c>
       <c r="L95">
-        <v>5250.52</v>
+        <v>4651.4799999999996</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -4303,31 +4303,31 @@
         <v>2000</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D96" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E96">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G96">
         <v>0.4</v>
       </c>
       <c r="I96">
-        <v>968.96</v>
+        <v>932.12</v>
       </c>
       <c r="J96">
-        <v>31.975590690400001</v>
+        <v>36.954913069847699</v>
       </c>
       <c r="K96">
-        <v>3488.36</v>
+        <v>3527.44</v>
       </c>
       <c r="L96">
-        <v>5155.12</v>
+        <v>4553.42</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -4338,31 +4338,31 @@
         <v>2000</v>
       </c>
       <c r="C97" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D97" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E97">
         <v>0.7</v>
       </c>
       <c r="F97" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G97">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I97">
-        <v>969.08</v>
+        <v>932.64</v>
       </c>
       <c r="J97">
-        <v>37.314254648860398</v>
+        <v>31.436132077595001</v>
       </c>
       <c r="K97">
-        <v>3182.38</v>
+        <v>5116.26</v>
       </c>
       <c r="L97">
-        <v>9586.24</v>
+        <v>9015.1200000000008</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -4373,31 +4373,31 @@
         <v>2000</v>
       </c>
       <c r="C98" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D98" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E98">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G98">
         <v>0.2</v>
       </c>
       <c r="I98">
-        <v>969.72</v>
+        <v>932.84</v>
       </c>
       <c r="J98">
-        <v>34.871214489891202</v>
+        <v>31.1463384685905</v>
       </c>
       <c r="K98">
-        <v>4376.34</v>
+        <v>4878.88</v>
       </c>
       <c r="L98">
-        <v>7968</v>
+        <v>10583.62</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -4411,98 +4411,98 @@
         <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E99">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G99">
         <v>0.2</v>
       </c>
       <c r="I99">
-        <v>972.76</v>
+        <v>934.08</v>
       </c>
       <c r="J99">
-        <v>31.678106003989502</v>
+        <v>26.0275546296612</v>
       </c>
       <c r="K99">
-        <v>2760.94</v>
+        <v>4894.1000000000004</v>
       </c>
       <c r="L99">
-        <v>5120.3</v>
+        <v>6320.44</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B100">
         <v>2000</v>
       </c>
       <c r="C100" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D100" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E100">
         <v>0.8</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G100">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I100">
-        <v>975.8</v>
+        <v>934.8</v>
       </c>
       <c r="J100">
-        <v>30.104484715736199</v>
+        <v>36.024436151034998</v>
       </c>
       <c r="K100">
-        <v>2958.92</v>
+        <v>3573.4</v>
       </c>
       <c r="L100">
-        <v>9164.2999999999993</v>
+        <v>4507.92</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B101">
         <v>2000</v>
       </c>
       <c r="C101" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E101">
         <v>0.8</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G101">
         <v>0.2</v>
       </c>
       <c r="I101">
-        <v>977.72</v>
+        <v>937.56</v>
       </c>
       <c r="J101">
-        <v>34.030597996508902</v>
+        <v>28.000828559169399</v>
       </c>
       <c r="K101">
-        <v>2050.06</v>
+        <v>6733.54</v>
       </c>
       <c r="L101">
-        <v>4728.66</v>
+        <v>9670.84</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -4513,13 +4513,13 @@
         <v>2000</v>
       </c>
       <c r="C102" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E102">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F102" t="s">
         <v>11</v>
@@ -4528,16 +4528,16 @@
         <v>0.2</v>
       </c>
       <c r="I102">
-        <v>984.24</v>
+        <v>938.6</v>
       </c>
       <c r="J102">
-        <v>58.073939077696402</v>
+        <v>30.5057371653267</v>
       </c>
       <c r="K102">
-        <v>5926.2</v>
+        <v>5082.18</v>
       </c>
       <c r="L102">
-        <v>8342.4599999999991</v>
+        <v>9926.18</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -4548,31 +4548,31 @@
         <v>2000</v>
       </c>
       <c r="C103" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D103" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E103">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F103" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G103">
         <v>0.4</v>
       </c>
       <c r="I103">
-        <v>984.68</v>
+        <v>939.92</v>
       </c>
       <c r="J103">
-        <v>24.545826529167801</v>
+        <v>30.238941780426099</v>
       </c>
       <c r="K103">
-        <v>4950.54</v>
+        <v>3302.56</v>
       </c>
       <c r="L103">
-        <v>5456.4</v>
+        <v>4526.4399999999996</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -4583,13 +4583,13 @@
         <v>2000</v>
       </c>
       <c r="C104" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D104" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E104">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F104" t="s">
         <v>11</v>
@@ -4598,16 +4598,16 @@
         <v>0.2</v>
       </c>
       <c r="I104">
-        <v>984.96</v>
+        <v>942.16</v>
       </c>
       <c r="J104">
-        <v>28.485055731031999</v>
+        <v>31.6880797777334</v>
       </c>
       <c r="K104">
-        <v>3619.88</v>
+        <v>3327.68</v>
       </c>
       <c r="L104">
-        <v>9594.82</v>
+        <v>9489.94</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -4618,66 +4618,66 @@
         <v>2000</v>
       </c>
       <c r="C105" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D105" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E105">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F105" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G105">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I105">
-        <v>986.28</v>
+        <v>946.8</v>
       </c>
       <c r="J105">
-        <v>34.606380914507596</v>
+        <v>31.8596924027838</v>
       </c>
       <c r="K105">
-        <v>2053.7399999999998</v>
+        <v>3349.86</v>
       </c>
       <c r="L105">
-        <v>4194.5200000000004</v>
+        <v>4538.92</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B106">
         <v>2000</v>
       </c>
       <c r="C106" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E106">
         <v>0.7</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G106">
         <v>0.2</v>
       </c>
       <c r="I106">
-        <v>988.84</v>
+        <v>947.12</v>
       </c>
       <c r="J106">
-        <v>40.102049822920499</v>
+        <v>38.423242965684203</v>
       </c>
       <c r="K106">
-        <v>2211.6</v>
+        <v>4841.58</v>
       </c>
       <c r="L106">
-        <v>4910.4399999999996</v>
+        <v>8422.1</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -4688,171 +4688,171 @@
         <v>2000</v>
       </c>
       <c r="C107" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D107" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E107">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F107" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G107">
         <v>0.4</v>
       </c>
       <c r="I107">
-        <v>989.6</v>
+        <v>948.04</v>
       </c>
       <c r="J107">
-        <v>26.043041297052799</v>
+        <v>32.823138180253203</v>
       </c>
       <c r="K107">
-        <v>4819.7</v>
+        <v>3544.38</v>
       </c>
       <c r="L107">
-        <v>5286.38</v>
+        <v>4644.32</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B108">
         <v>2000</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D108" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E108">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F108" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G108">
         <v>0.2</v>
       </c>
       <c r="I108">
-        <v>990.52</v>
+        <v>949.04</v>
       </c>
       <c r="J108">
-        <v>33.570963644197001</v>
+        <v>29.818759196183802</v>
       </c>
       <c r="K108">
-        <v>2476.2399999999998</v>
+        <v>4803.62</v>
       </c>
       <c r="L108">
-        <v>5052.78</v>
+        <v>9853.42</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B109">
         <v>2000</v>
       </c>
       <c r="C109" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D109" t="s">
         <v>10</v>
       </c>
       <c r="E109">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F109" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G109">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I109">
-        <v>991.4</v>
+        <v>949.28</v>
       </c>
       <c r="J109">
-        <v>29.7031984809717</v>
+        <v>26.474923984782201</v>
       </c>
       <c r="K109">
-        <v>7693.54</v>
+        <v>3818.8</v>
       </c>
       <c r="L109">
-        <v>9989.0400000000009</v>
+        <v>4547.68</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B110">
         <v>2000</v>
       </c>
       <c r="C110" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D110" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E110">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F110" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G110">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I110">
-        <v>999.08</v>
+        <v>950.8</v>
       </c>
       <c r="J110">
-        <v>32.868732862706999</v>
+        <v>32.4813792810588</v>
       </c>
       <c r="K110">
-        <v>2269.66</v>
+        <v>4436.62</v>
       </c>
       <c r="L110">
-        <v>5201.88</v>
+        <v>9170.44</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B111">
         <v>2000</v>
       </c>
       <c r="C111" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D111" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E111">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F111" t="s">
         <v>11</v>
       </c>
       <c r="G111">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I111">
-        <v>999.08</v>
+        <v>952.52</v>
       </c>
       <c r="J111">
-        <v>36.3344684837964</v>
+        <v>33.635243421149703</v>
       </c>
       <c r="K111">
-        <v>2221</v>
+        <v>4304.88</v>
       </c>
       <c r="L111">
-        <v>4499.76</v>
+        <v>9283.06</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
@@ -4863,83 +4863,83 @@
         <v>2000</v>
       </c>
       <c r="C112" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E112">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F112" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G112">
         <v>0.2</v>
       </c>
       <c r="I112">
-        <v>999.16</v>
+        <v>952.52</v>
       </c>
       <c r="J112">
-        <v>33.903604528132398</v>
+        <v>29.6507942558036</v>
       </c>
       <c r="K112">
-        <v>6338.04</v>
+        <v>5115.54</v>
       </c>
       <c r="L112">
-        <v>9619.1200000000008</v>
+        <v>8833.2999999999993</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B113">
         <v>2000</v>
       </c>
       <c r="C113" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D113" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E113">
         <v>0.8</v>
       </c>
       <c r="F113" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G113">
         <v>0.4</v>
       </c>
       <c r="I113">
-        <v>1003.8</v>
+        <v>953.56</v>
       </c>
       <c r="J113">
-        <v>30.777264335869699</v>
+        <v>33.498155173083703</v>
       </c>
       <c r="K113">
-        <v>3920.6</v>
+        <v>2886.14</v>
       </c>
       <c r="L113">
-        <v>9047.7000000000007</v>
+        <v>4718.78</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B114">
         <v>2000</v>
       </c>
       <c r="C114" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E114">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F114" t="s">
         <v>11</v>
@@ -4948,16 +4948,16 @@
         <v>0.4</v>
       </c>
       <c r="I114">
-        <v>1011.4</v>
+        <v>953.96</v>
       </c>
       <c r="J114">
-        <v>77.213729349125401</v>
+        <v>29.947928142026701</v>
       </c>
       <c r="K114">
-        <v>5710.9</v>
+        <v>3489.76</v>
       </c>
       <c r="L114">
-        <v>8883.2000000000007</v>
+        <v>5178.5</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
@@ -4968,31 +4968,31 @@
         <v>2000</v>
       </c>
       <c r="C115" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D115" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E115">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F115" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G115">
         <v>0.2</v>
       </c>
       <c r="I115">
-        <v>1012.28</v>
+        <v>954.4</v>
       </c>
       <c r="J115">
-        <v>30.8389623690551</v>
+        <v>29.9359315873082</v>
       </c>
       <c r="K115">
-        <v>8103.48</v>
+        <v>6873.98</v>
       </c>
       <c r="L115">
-        <v>9361.8799999999992</v>
+        <v>9209.2000000000007</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
@@ -5003,31 +5003,31 @@
         <v>2000</v>
       </c>
       <c r="C116" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D116" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E116">
         <v>0.7</v>
       </c>
       <c r="F116" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G116">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I116">
-        <v>1015.28</v>
+        <v>955.48</v>
       </c>
       <c r="J116">
-        <v>34.145008419972598</v>
+        <v>28.351536113586501</v>
       </c>
       <c r="K116">
-        <v>3143.3</v>
+        <v>4728.66</v>
       </c>
       <c r="L116">
-        <v>8853.06</v>
+        <v>9686.82</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
@@ -5038,48 +5038,48 @@
         <v>2000</v>
       </c>
       <c r="C117" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D117" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E117">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G117">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I117">
-        <v>1015.92</v>
+        <v>956</v>
       </c>
       <c r="J117">
-        <v>31.5213197693243</v>
+        <v>34.444157704899602</v>
       </c>
       <c r="K117">
-        <v>1980.54</v>
+        <v>2751.18</v>
       </c>
       <c r="L117">
-        <v>5079.8599999999997</v>
+        <v>4469.04</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B118">
         <v>2000</v>
       </c>
       <c r="C118" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D118" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E118">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F118" t="s">
         <v>11</v>
@@ -5088,16 +5088,16 @@
         <v>0.2</v>
       </c>
       <c r="I118">
-        <v>1016.68</v>
+        <v>959.08</v>
       </c>
       <c r="J118">
-        <v>28.7071001670318</v>
+        <v>36.422432648026103</v>
       </c>
       <c r="K118">
-        <v>1743.32</v>
+        <v>3628.7</v>
       </c>
       <c r="L118">
-        <v>5048.7</v>
+        <v>8597.7199999999993</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
@@ -5108,42 +5108,42 @@
         <v>2000</v>
       </c>
       <c r="C119" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D119" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E119">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F119" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G119">
         <v>0.4</v>
       </c>
       <c r="I119">
-        <v>1017.84</v>
+        <v>959.4</v>
       </c>
       <c r="J119">
-        <v>33.485137001362197</v>
+        <v>32.563169378916399</v>
       </c>
       <c r="K119">
-        <v>1921</v>
+        <v>3015.14</v>
       </c>
       <c r="L119">
-        <v>4512.46</v>
+        <v>4660.46</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B120">
         <v>2000</v>
       </c>
       <c r="C120" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D120" t="s">
         <v>10</v>
@@ -5152,57 +5152,57 @@
         <v>0.7</v>
       </c>
       <c r="F120" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G120">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I120">
-        <v>1018.56</v>
+        <v>965.28</v>
       </c>
       <c r="J120">
-        <v>35.327134047357902</v>
+        <v>35.563486893160501</v>
       </c>
       <c r="K120">
-        <v>6953.96</v>
+        <v>3516</v>
       </c>
       <c r="L120">
-        <v>8997.24</v>
+        <v>4950.4399999999996</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B121">
         <v>2000</v>
       </c>
       <c r="C121" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E121">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F121" t="s">
         <v>11</v>
       </c>
       <c r="G121">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I121">
-        <v>1023.92</v>
+        <v>968.96</v>
       </c>
       <c r="J121">
-        <v>36.391119795906199</v>
+        <v>31.975590690400001</v>
       </c>
       <c r="K121">
-        <v>3164.88</v>
+        <v>3488.36</v>
       </c>
       <c r="L121">
-        <v>8547.66</v>
+        <v>5155.12</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
@@ -5213,31 +5213,31 @@
         <v>2000</v>
       </c>
       <c r="C122" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E122">
         <v>0.7</v>
       </c>
       <c r="F122" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G122">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I122">
-        <v>1025.72</v>
+        <v>969.08</v>
       </c>
       <c r="J122">
-        <v>38.262273847747203</v>
+        <v>37.314254648860398</v>
       </c>
       <c r="K122">
-        <v>6920.98</v>
+        <v>3182.38</v>
       </c>
       <c r="L122">
-        <v>8917.48</v>
+        <v>9586.24</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
@@ -5248,31 +5248,31 @@
         <v>2000</v>
       </c>
       <c r="C123" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D123" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E123">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F123" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G123">
         <v>0.2</v>
       </c>
       <c r="I123">
-        <v>1032.56</v>
+        <v>969.32</v>
       </c>
       <c r="J123">
-        <v>31.5012126750701</v>
+        <v>35.342008997791801</v>
       </c>
       <c r="K123">
-        <v>1920.3</v>
+        <v>2879.8</v>
       </c>
       <c r="L123">
-        <v>4964.3</v>
+        <v>4151.66</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
@@ -5283,66 +5283,66 @@
         <v>2000</v>
       </c>
       <c r="C124" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D124" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E124">
         <v>0.7</v>
       </c>
       <c r="F124" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G124">
         <v>0.2</v>
       </c>
       <c r="I124">
-        <v>1032.6400000000001</v>
+        <v>969.72</v>
       </c>
       <c r="J124">
-        <v>28.364597652707801</v>
+        <v>34.871214489891202</v>
       </c>
       <c r="K124">
-        <v>8542.2199999999993</v>
+        <v>4376.34</v>
       </c>
       <c r="L124">
-        <v>9860.7800000000007</v>
+        <v>7968</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B125">
         <v>2000</v>
       </c>
       <c r="C125" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D125" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E125">
         <v>0.7</v>
       </c>
       <c r="F125" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G125">
         <v>0.2</v>
       </c>
       <c r="I125">
-        <v>1033.2</v>
+        <v>972.44</v>
       </c>
       <c r="J125">
-        <v>32.704739717661703</v>
+        <v>32.7494488503241</v>
       </c>
       <c r="K125">
-        <v>3351.82</v>
+        <v>2673.18</v>
       </c>
       <c r="L125">
-        <v>9363.36</v>
+        <v>4439.34</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
@@ -5353,101 +5353,101 @@
         <v>2000</v>
       </c>
       <c r="C126" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E126">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F126" t="s">
         <v>11</v>
       </c>
       <c r="G126">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I126">
-        <v>1035.04</v>
+        <v>972.76</v>
       </c>
       <c r="J126">
-        <v>34.139103678919199</v>
+        <v>31.678106003989502</v>
       </c>
       <c r="K126">
-        <v>1798.92</v>
+        <v>2760.94</v>
       </c>
       <c r="L126">
-        <v>4533.84</v>
+        <v>5120.3</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B127">
         <v>2000</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D127" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E127">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F127" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G127">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I127">
-        <v>1038</v>
+        <v>973.76</v>
       </c>
       <c r="J127">
-        <v>13.757906817535799</v>
+        <v>31.588960096843898</v>
       </c>
       <c r="K127">
-        <v>5649.86</v>
+        <v>2366.1799999999998</v>
       </c>
       <c r="L127">
-        <v>10850.62</v>
+        <v>4107.76</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B128">
         <v>2000</v>
       </c>
       <c r="C128" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D128" t="s">
         <v>15</v>
       </c>
       <c r="E128">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F128" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G128">
         <v>0.2</v>
       </c>
       <c r="I128">
-        <v>1045.32</v>
+        <v>973.92</v>
       </c>
       <c r="J128">
-        <v>38.546823474833801</v>
+        <v>71.045855614525394</v>
       </c>
       <c r="K128">
-        <v>1986.08</v>
+        <v>6633.04</v>
       </c>
       <c r="L128">
-        <v>4465.96</v>
+        <v>8964.76</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
@@ -5458,7 +5458,7 @@
         <v>2000</v>
       </c>
       <c r="C129" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D129" t="s">
         <v>10</v>
@@ -5467,33 +5467,33 @@
         <v>0.8</v>
       </c>
       <c r="F129" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G129">
         <v>0.2</v>
       </c>
       <c r="I129">
-        <v>1047</v>
+        <v>974.6</v>
       </c>
       <c r="J129">
-        <v>31.221146679774499</v>
+        <v>30.660071754645301</v>
       </c>
       <c r="K129">
-        <v>3603.76</v>
+        <v>2399</v>
       </c>
       <c r="L129">
-        <v>4733.5</v>
+        <v>4390.0200000000004</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B130">
         <v>2000</v>
       </c>
       <c r="C130" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D130" t="s">
         <v>15</v>
@@ -5502,22 +5502,22 @@
         <v>0.8</v>
       </c>
       <c r="F130" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G130">
         <v>0.2</v>
       </c>
       <c r="I130">
-        <v>1047.8800000000001</v>
+        <v>974.8</v>
       </c>
       <c r="J130">
-        <v>25.576270251934702</v>
+        <v>55.679080452176997</v>
       </c>
       <c r="K130">
-        <v>1604.34</v>
+        <v>6253.96</v>
       </c>
       <c r="L130">
-        <v>4482.5200000000004</v>
+        <v>9360.86</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
@@ -5528,31 +5528,31 @@
         <v>2000</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D131" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E131">
         <v>0.8</v>
       </c>
       <c r="F131" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G131">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I131">
-        <v>1049.1199999999999</v>
+        <v>975.8</v>
       </c>
       <c r="J131">
-        <v>14.6923653643652</v>
+        <v>30.104484715736199</v>
       </c>
       <c r="K131">
-        <v>7990.8</v>
+        <v>2958.92</v>
       </c>
       <c r="L131">
-        <v>13600.64</v>
+        <v>9164.2999999999993</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
@@ -5563,42 +5563,42 @@
         <v>2000</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D132" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E132">
         <v>0.7</v>
       </c>
       <c r="F132" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G132">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I132">
-        <v>1055.76</v>
+        <v>977.16</v>
       </c>
       <c r="J132">
-        <v>15.6135325919536</v>
+        <v>28.9747200159035</v>
       </c>
       <c r="K132">
-        <v>3320</v>
+        <v>3395.54</v>
       </c>
       <c r="L132">
-        <v>5567.68</v>
+        <v>4568.66</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B133">
         <v>2000</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D133" t="s">
         <v>10</v>
@@ -5607,22 +5607,22 @@
         <v>0.8</v>
       </c>
       <c r="F133" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G133">
         <v>0.2</v>
       </c>
       <c r="I133">
-        <v>1057.6400000000001</v>
+        <v>977.72</v>
       </c>
       <c r="J133">
-        <v>137.74683444638501</v>
+        <v>34.030597996508902</v>
       </c>
       <c r="K133">
-        <v>7103.94</v>
+        <v>2050.06</v>
       </c>
       <c r="L133">
-        <v>11060.2</v>
+        <v>4728.66</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
@@ -5633,42 +5633,42 @@
         <v>2000</v>
       </c>
       <c r="C134" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E134">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F134" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G134">
         <v>0.2</v>
       </c>
       <c r="I134">
-        <v>1058.3599999999999</v>
+        <v>978.88</v>
       </c>
       <c r="J134">
-        <v>36.944693800327997</v>
+        <v>31.136242547873302</v>
       </c>
       <c r="K134">
-        <v>3919.54</v>
+        <v>2652.84</v>
       </c>
       <c r="L134">
-        <v>5048.26</v>
+        <v>4625.08</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B135">
         <v>2000</v>
       </c>
       <c r="C135" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D135" t="s">
         <v>15</v>
@@ -5677,22 +5677,22 @@
         <v>0.7</v>
       </c>
       <c r="F135" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G135">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I135">
-        <v>1060.1600000000001</v>
+        <v>979.12</v>
       </c>
       <c r="J135">
-        <v>33.6472049359229</v>
+        <v>31.8249210525336</v>
       </c>
       <c r="K135">
-        <v>8773.32</v>
+        <v>2604.6799999999998</v>
       </c>
       <c r="L135">
-        <v>10021.040000000001</v>
+        <v>4128.1400000000003</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
@@ -5703,31 +5703,31 @@
         <v>2000</v>
       </c>
       <c r="C136" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D136" t="s">
         <v>10</v>
       </c>
       <c r="E136">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F136" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G136">
         <v>0.2</v>
       </c>
       <c r="I136">
-        <v>1060.24</v>
+        <v>981.96</v>
       </c>
       <c r="J136">
-        <v>29.111207463793001</v>
+        <v>32.927775509438803</v>
       </c>
       <c r="K136">
-        <v>3530.52</v>
+        <v>2201.66</v>
       </c>
       <c r="L136">
-        <v>4700.68</v>
+        <v>4451.8599999999997</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
@@ -5738,66 +5738,66 @@
         <v>2000</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D137" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E137">
         <v>0.8</v>
       </c>
       <c r="F137" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G137">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I137">
-        <v>1060.8800000000001</v>
+        <v>982.16</v>
       </c>
       <c r="J137">
-        <v>16.258708435789099</v>
+        <v>34.408929073715697</v>
       </c>
       <c r="K137">
-        <v>2907.3</v>
+        <v>3391.86</v>
       </c>
       <c r="L137">
-        <v>5524.88</v>
+        <v>4622.6400000000003</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B138">
         <v>2000</v>
       </c>
       <c r="C138" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D138" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E138">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F138" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G138">
         <v>0.2</v>
       </c>
       <c r="I138">
-        <v>1063.3599999999999</v>
+        <v>982.84</v>
       </c>
       <c r="J138">
-        <v>28.842857001344299</v>
+        <v>35.995755305313402</v>
       </c>
       <c r="K138">
-        <v>6826.36</v>
+        <v>2496.94</v>
       </c>
       <c r="L138">
-        <v>9310.58</v>
+        <v>4126.54</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
@@ -5808,171 +5808,171 @@
         <v>2000</v>
       </c>
       <c r="C139" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D139" t="s">
         <v>15</v>
       </c>
       <c r="E139">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F139" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G139">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I139">
-        <v>1064.72</v>
+        <v>984.24</v>
       </c>
       <c r="J139">
-        <v>30.970334192578498</v>
+        <v>58.073939077696402</v>
       </c>
       <c r="K139">
-        <v>8353.5</v>
+        <v>5926.2</v>
       </c>
       <c r="L139">
-        <v>9679.36</v>
+        <v>8342.4599999999991</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B140">
         <v>2000</v>
       </c>
       <c r="C140" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D140" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E140">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F140" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G140">
         <v>0.2</v>
       </c>
       <c r="I140">
-        <v>1074.28</v>
+        <v>984.96</v>
       </c>
       <c r="J140">
-        <v>29.366674990539799</v>
+        <v>28.485055731031999</v>
       </c>
       <c r="K140">
-        <v>4560.3999999999996</v>
+        <v>3619.88</v>
       </c>
       <c r="L140">
-        <v>5254.44</v>
+        <v>9594.82</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B141">
         <v>2000</v>
       </c>
       <c r="C141" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D141" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E141">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F141" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G141">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I141">
-        <v>1078.28</v>
+        <v>985.32</v>
       </c>
       <c r="J141">
-        <v>29.890493472005399</v>
+        <v>32.470565132131597</v>
       </c>
       <c r="K141">
-        <v>4382.6400000000003</v>
+        <v>6711.74</v>
       </c>
       <c r="L141">
-        <v>5170.9399999999996</v>
+        <v>9921.2000000000007</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B142">
         <v>2000</v>
       </c>
       <c r="C142" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D142" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E142">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F142" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G142">
         <v>0.2</v>
       </c>
       <c r="I142">
-        <v>1082.2</v>
+        <v>986.28</v>
       </c>
       <c r="J142">
-        <v>21.216031674184499</v>
+        <v>34.606380914507596</v>
       </c>
       <c r="K142">
-        <v>7130.04</v>
+        <v>2053.7399999999998</v>
       </c>
       <c r="L142">
-        <v>9247.2000000000007</v>
+        <v>4194.5200000000004</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B143">
         <v>2000</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E143">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F143" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G143">
         <v>0.4</v>
       </c>
       <c r="I143">
-        <v>1084.08</v>
+        <v>987.36</v>
       </c>
       <c r="J143">
-        <v>27.706923322519899</v>
+        <v>28.8622660233045</v>
       </c>
       <c r="K143">
-        <v>3879.34</v>
+        <v>6425.14</v>
       </c>
       <c r="L143">
-        <v>6052.58</v>
+        <v>10535.56</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
@@ -5983,7 +5983,7 @@
         <v>2000</v>
       </c>
       <c r="C144" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D144" t="s">
         <v>10</v>
@@ -5992,62 +5992,62 @@
         <v>0.7</v>
       </c>
       <c r="F144" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G144">
         <v>0.2</v>
       </c>
       <c r="I144">
-        <v>1084.56</v>
+        <v>988.84</v>
       </c>
       <c r="J144">
-        <v>33.468887044537297</v>
+        <v>40.102049822920499</v>
       </c>
       <c r="K144">
-        <v>3421.16</v>
+        <v>2211.6</v>
       </c>
       <c r="L144">
-        <v>5065.9799999999996</v>
+        <v>4910.4399999999996</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B145">
         <v>2000</v>
       </c>
       <c r="C145" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D145" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E145">
         <v>0.8</v>
       </c>
       <c r="F145" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G145">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I145">
-        <v>1086</v>
+        <v>990.2</v>
       </c>
       <c r="J145">
-        <v>30.5470129472588</v>
+        <v>31.315810703221398</v>
       </c>
       <c r="K145">
-        <v>4339.3599999999997</v>
+        <v>5456.08</v>
       </c>
       <c r="L145">
-        <v>4869.8</v>
+        <v>9489.7999999999993</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B146">
         <v>2000</v>
@@ -6056,7 +6056,7 @@
         <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E146">
         <v>0.7</v>
@@ -6065,19 +6065,19 @@
         <v>11</v>
       </c>
       <c r="G146">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I146">
-        <v>1089.28</v>
+        <v>990.52</v>
       </c>
       <c r="J146">
-        <v>19.173982371953901</v>
+        <v>33.570963644197001</v>
       </c>
       <c r="K146">
-        <v>7120.12</v>
+        <v>2476.2399999999998</v>
       </c>
       <c r="L146">
-        <v>12771.38</v>
+        <v>5052.78</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
@@ -6088,31 +6088,31 @@
         <v>2000</v>
       </c>
       <c r="C147" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D147" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E147">
         <v>0.7</v>
       </c>
       <c r="F147" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G147">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I147">
-        <v>1089.76</v>
+        <v>992.8</v>
       </c>
       <c r="J147">
-        <v>32.913559515798298</v>
+        <v>34.786204161995002</v>
       </c>
       <c r="K147">
-        <v>4181.6000000000004</v>
+        <v>2352.88</v>
       </c>
       <c r="L147">
-        <v>4821.6000000000004</v>
+        <v>4566.5200000000004</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
@@ -6123,206 +6123,206 @@
         <v>2000</v>
       </c>
       <c r="C148" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D148" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E148">
         <v>0.8</v>
       </c>
       <c r="F148" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G148">
         <v>0.4</v>
       </c>
       <c r="I148">
-        <v>1092.28</v>
+        <v>995.68</v>
       </c>
       <c r="J148">
-        <v>23.728497634700702</v>
+        <v>32.516728002675698</v>
       </c>
       <c r="K148">
-        <v>5153.32</v>
+        <v>4839.24</v>
       </c>
       <c r="L148">
-        <v>9034.2800000000007</v>
+        <v>8738.64</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B149">
         <v>2000</v>
       </c>
       <c r="C149" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D149" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E149">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F149" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G149">
         <v>0.4</v>
       </c>
       <c r="I149">
-        <v>1096.76</v>
+        <v>996.16</v>
       </c>
       <c r="J149">
-        <v>33.987974343876303</v>
+        <v>29.128240592249899</v>
       </c>
       <c r="K149">
-        <v>4212.12</v>
+        <v>6088.74</v>
       </c>
       <c r="L149">
-        <v>4850.82</v>
+        <v>9691.18</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B150">
         <v>2000</v>
       </c>
       <c r="C150" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D150" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E150">
         <v>0.7</v>
       </c>
       <c r="F150" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G150">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I150">
-        <v>1098.48</v>
+        <v>996.2</v>
       </c>
       <c r="J150">
-        <v>26.356206100271699</v>
+        <v>34.073450074801599</v>
       </c>
       <c r="K150">
-        <v>4113.84</v>
+        <v>5460.5</v>
       </c>
       <c r="L150">
-        <v>4807.28</v>
+        <v>10263.66</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B151">
         <v>2000</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E151">
         <v>0.8</v>
       </c>
       <c r="F151" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G151">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I151">
-        <v>1102.28</v>
+        <v>999.08</v>
       </c>
       <c r="J151">
-        <v>103.207759398215</v>
+        <v>32.868732862706999</v>
       </c>
       <c r="K151">
-        <v>8413.86</v>
+        <v>2269.66</v>
       </c>
       <c r="L151">
-        <v>13193.84</v>
+        <v>5201.88</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B152">
         <v>2000</v>
       </c>
       <c r="C152" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D152" t="s">
         <v>15</v>
       </c>
       <c r="E152">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F152" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G152">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I152">
-        <v>1107.72</v>
+        <v>999.08</v>
       </c>
       <c r="J152">
-        <v>53.549244625858101</v>
+        <v>36.3344684837964</v>
       </c>
       <c r="K152">
-        <v>7997.08</v>
+        <v>2221</v>
       </c>
       <c r="L152">
-        <v>9951.18</v>
+        <v>4499.76</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B153">
         <v>2000</v>
       </c>
       <c r="C153" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D153" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E153">
         <v>0.7</v>
       </c>
       <c r="F153" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G153">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I153">
-        <v>1108.1600000000001</v>
+        <v>1003.6</v>
       </c>
       <c r="J153">
-        <v>32.342764260341099</v>
+        <v>27.544872481098899</v>
       </c>
       <c r="K153">
-        <v>6694.42</v>
+        <v>2220.12</v>
       </c>
       <c r="L153">
-        <v>9639.66</v>
+        <v>4375.8599999999997</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
@@ -6333,66 +6333,66 @@
         <v>2000</v>
       </c>
       <c r="C154" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D154" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E154">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F154" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G154">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I154">
-        <v>1112.08</v>
+        <v>1003.8</v>
       </c>
       <c r="J154">
-        <v>44.199475110005501</v>
+        <v>30.777264335869699</v>
       </c>
       <c r="K154">
-        <v>3298.74</v>
+        <v>3920.6</v>
       </c>
       <c r="L154">
-        <v>8173.04</v>
+        <v>9047.7000000000007</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B155">
         <v>2000</v>
       </c>
       <c r="C155" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D155" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E155">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F155" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G155">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I155">
-        <v>1112.28</v>
+        <v>1005.92</v>
       </c>
       <c r="J155">
-        <v>28.5937335792302</v>
+        <v>72.994202509514395</v>
       </c>
       <c r="K155">
-        <v>3896.56</v>
+        <v>5909.18</v>
       </c>
       <c r="L155">
-        <v>5207.4399999999996</v>
+        <v>9528.92</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
@@ -6403,206 +6403,206 @@
         <v>2000</v>
       </c>
       <c r="C156" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D156" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E156">
         <v>0.8</v>
       </c>
       <c r="F156" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G156">
         <v>0.2</v>
       </c>
       <c r="I156">
-        <v>1114.8800000000001</v>
+        <v>1005.96</v>
       </c>
       <c r="J156">
-        <v>28.476404267393001</v>
+        <v>32.425890889842897</v>
       </c>
       <c r="K156">
-        <v>6223.9</v>
+        <v>2700.86</v>
       </c>
       <c r="L156">
-        <v>9069.7999999999993</v>
+        <v>8909.26</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B157">
         <v>2000</v>
       </c>
       <c r="C157" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D157" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E157">
         <v>0.8</v>
       </c>
       <c r="F157" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G157">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I157">
-        <v>1118.1600000000001</v>
+        <v>1006.84</v>
       </c>
       <c r="J157">
-        <v>30.3969472151398</v>
+        <v>30.9634365017838</v>
       </c>
       <c r="K157">
-        <v>5594.28</v>
+        <v>2848.56</v>
       </c>
       <c r="L157">
-        <v>8642.86</v>
+        <v>4380.88</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B158">
         <v>2000</v>
       </c>
       <c r="C158" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D158" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E158">
         <v>0.7</v>
       </c>
       <c r="F158" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G158">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I158">
-        <v>1118.56</v>
+        <v>1009.24</v>
       </c>
       <c r="J158">
-        <v>27.507206328524099</v>
+        <v>31.683156408413598</v>
       </c>
       <c r="K158">
-        <v>5849.68</v>
+        <v>2686.1</v>
       </c>
       <c r="L158">
-        <v>9645.5400000000009</v>
+        <v>4485.4799999999996</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B159">
         <v>2000</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D159" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E159">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F159" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G159">
         <v>0.4</v>
       </c>
       <c r="I159">
-        <v>1119.8800000000001</v>
+        <v>1010.92</v>
       </c>
       <c r="J159">
-        <v>16.318872510072499</v>
+        <v>32.839512785667203</v>
       </c>
       <c r="K159">
-        <v>5705.12</v>
+        <v>2131.12</v>
       </c>
       <c r="L159">
-        <v>10502.8</v>
+        <v>4328.92</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B160">
         <v>2000</v>
       </c>
       <c r="C160" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D160" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E160">
         <v>0.7</v>
       </c>
       <c r="F160" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G160">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I160">
-        <v>1120.8399999999999</v>
+        <v>1011.4</v>
       </c>
       <c r="J160">
-        <v>28.2788684356358</v>
+        <v>77.213729349125401</v>
       </c>
       <c r="K160">
-        <v>3609.18</v>
+        <v>5710.9</v>
       </c>
       <c r="L160">
-        <v>5087.62</v>
+        <v>8883.2000000000007</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B161">
         <v>2000</v>
       </c>
       <c r="C161" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D161" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E161">
         <v>0.7</v>
       </c>
       <c r="F161" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G161">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I161">
-        <v>1122.08</v>
+        <v>1014.6</v>
       </c>
       <c r="J161">
-        <v>34.5391603835414</v>
+        <v>34.935941378471497</v>
       </c>
       <c r="K161">
-        <v>3102.92</v>
+        <v>3782.2</v>
       </c>
       <c r="L161">
-        <v>4931.4799999999996</v>
+        <v>10224.1</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
@@ -6613,66 +6613,66 @@
         <v>2000</v>
       </c>
       <c r="C162" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D162" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E162">
         <v>0.7</v>
       </c>
       <c r="F162" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G162">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I162">
-        <v>1126</v>
+        <v>1015.28</v>
       </c>
       <c r="J162">
-        <v>39.917915777254699</v>
+        <v>34.145008419972598</v>
       </c>
       <c r="K162">
-        <v>3711.74</v>
+        <v>3143.3</v>
       </c>
       <c r="L162">
-        <v>8158.08</v>
+        <v>8853.06</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B163">
         <v>2000</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D163" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E163">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F163" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G163">
         <v>0.4</v>
       </c>
       <c r="I163">
-        <v>1126.24</v>
+        <v>1015.92</v>
       </c>
       <c r="J163">
-        <v>14.4257547462862</v>
+        <v>31.5213197693243</v>
       </c>
       <c r="K163">
-        <v>7411.04</v>
+        <v>1980.54</v>
       </c>
       <c r="L163">
-        <v>14303.78</v>
+        <v>5079.8599999999997</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
@@ -6683,31 +6683,31 @@
         <v>2000</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D164" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E164">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F164" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G164">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I164">
-        <v>1127.2</v>
+        <v>1016</v>
       </c>
       <c r="J164">
-        <v>12.5729869164013</v>
+        <v>36.979994591670703</v>
       </c>
       <c r="K164">
-        <v>2700.18</v>
+        <v>2411.66</v>
       </c>
       <c r="L164">
-        <v>5446.78</v>
+        <v>4270.42</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
@@ -6718,31 +6718,31 @@
         <v>2000</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D165" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E165">
         <v>0.8</v>
       </c>
       <c r="F165" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G165">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I165">
-        <v>1132.8399999999999</v>
+        <v>1016.68</v>
       </c>
       <c r="J165">
-        <v>17.060316526958101</v>
+        <v>28.7071001670318</v>
       </c>
       <c r="K165">
-        <v>2949.3</v>
+        <v>1743.32</v>
       </c>
       <c r="L165">
-        <v>5435.56</v>
+        <v>5048.7</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
@@ -6753,31 +6753,31 @@
         <v>2000</v>
       </c>
       <c r="C166" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D166" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E166">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F166" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G166">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I166">
-        <v>1133.1199999999999</v>
+        <v>1017.84</v>
       </c>
       <c r="J166">
-        <v>30.418836269653699</v>
+        <v>33.485137001362197</v>
       </c>
       <c r="K166">
-        <v>2898.48</v>
+        <v>1921</v>
       </c>
       <c r="L166">
-        <v>4580.26</v>
+        <v>4512.46</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
@@ -6788,66 +6788,66 @@
         <v>2000</v>
       </c>
       <c r="C167" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D167" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E167">
         <v>0.7</v>
       </c>
       <c r="F167" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G167">
         <v>0.2</v>
       </c>
       <c r="I167">
-        <v>1133.68</v>
+        <v>1018.96</v>
       </c>
       <c r="J167">
-        <v>37.76</v>
+        <v>33.595809262465998</v>
       </c>
       <c r="K167">
-        <v>2168.96</v>
+        <v>2957.46</v>
       </c>
       <c r="L167">
-        <v>4567.7</v>
+        <v>4345.22</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B168">
         <v>2000</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E168">
         <v>0.8</v>
       </c>
       <c r="F168" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G168">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I168">
-        <v>1134.1600000000001</v>
+        <v>1020.76</v>
       </c>
       <c r="J168">
-        <v>10.857918769266901</v>
+        <v>31.490671634628502</v>
       </c>
       <c r="K168">
-        <v>7143.92</v>
+        <v>1761.58</v>
       </c>
       <c r="L168">
-        <v>13625.14</v>
+        <v>4242.8599999999997</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
@@ -6858,31 +6858,31 @@
         <v>2000</v>
       </c>
       <c r="C169" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D169" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E169">
         <v>0.8</v>
       </c>
       <c r="F169" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G169">
         <v>0.2</v>
       </c>
       <c r="I169">
-        <v>1134.52</v>
+        <v>1023.92</v>
       </c>
       <c r="J169">
-        <v>43.542733033193898</v>
+        <v>36.391119795906199</v>
       </c>
       <c r="K169">
-        <v>4827.6400000000003</v>
+        <v>3164.88</v>
       </c>
       <c r="L169">
-        <v>8515.76</v>
+        <v>8547.66</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
@@ -6893,31 +6893,31 @@
         <v>2000</v>
       </c>
       <c r="C170" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D170" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E170">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F170" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G170">
         <v>0.2</v>
       </c>
       <c r="I170">
-        <v>1135.04</v>
+        <v>1025.5999999999999</v>
       </c>
       <c r="J170">
-        <v>35.0867268350868</v>
+        <v>42.3131185331452</v>
       </c>
       <c r="K170">
-        <v>1919.2</v>
+        <v>1659.04</v>
       </c>
       <c r="L170">
-        <v>4362.4799999999996</v>
+        <v>4331.7</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
@@ -6928,101 +6928,101 @@
         <v>2000</v>
       </c>
       <c r="C171" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D171" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E171">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F171" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G171">
         <v>0.2</v>
       </c>
       <c r="I171">
-        <v>1141.8399999999999</v>
+        <v>1032.56</v>
       </c>
       <c r="J171">
-        <v>23.781808173475699</v>
+        <v>31.5012126750701</v>
       </c>
       <c r="K171">
-        <v>2981.4</v>
+        <v>1920.3</v>
       </c>
       <c r="L171">
-        <v>4595.74</v>
+        <v>4964.3</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B172">
         <v>2000</v>
       </c>
       <c r="C172" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D172" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E172">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F172" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G172">
         <v>0.2</v>
       </c>
       <c r="I172">
-        <v>1143.92</v>
+        <v>1033.2</v>
       </c>
       <c r="J172">
-        <v>27.7126974508076</v>
+        <v>32.704739717661703</v>
       </c>
       <c r="K172">
-        <v>2574.3000000000002</v>
+        <v>3351.82</v>
       </c>
       <c r="L172">
-        <v>4634.0600000000004</v>
+        <v>9363.36</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B173">
         <v>2000</v>
       </c>
       <c r="C173" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D173" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E173">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F173" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G173">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I173">
-        <v>1144.1600000000001</v>
+        <v>1035.04</v>
       </c>
       <c r="J173">
-        <v>36.612216540384402</v>
+        <v>34.139103678919199</v>
       </c>
       <c r="K173">
-        <v>5078.1000000000004</v>
+        <v>1798.92</v>
       </c>
       <c r="L173">
-        <v>8432.4599999999991</v>
+        <v>4533.84</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
@@ -7033,101 +7033,101 @@
         <v>2000</v>
       </c>
       <c r="C174" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D174" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E174">
         <v>0.7</v>
       </c>
       <c r="F174" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G174">
         <v>0.2</v>
       </c>
       <c r="I174">
-        <v>1147.56</v>
+        <v>1045.32</v>
       </c>
       <c r="J174">
-        <v>29.0414600183943</v>
+        <v>38.546823474833801</v>
       </c>
       <c r="K174">
-        <v>2826.36</v>
+        <v>1986.08</v>
       </c>
       <c r="L174">
-        <v>4626.4799999999996</v>
+        <v>4465.96</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B175">
         <v>2000</v>
       </c>
       <c r="C175" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D175" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E175">
         <v>0.8</v>
       </c>
       <c r="F175" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G175">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I175">
-        <v>1148.3599999999999</v>
+        <v>1047.8800000000001</v>
       </c>
       <c r="J175">
-        <v>48.620473054054003</v>
+        <v>25.576270251934702</v>
       </c>
       <c r="K175">
-        <v>6386.7</v>
+        <v>1604.34</v>
       </c>
       <c r="L175">
-        <v>9918.32</v>
+        <v>4482.5200000000004</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B176">
         <v>2000</v>
       </c>
       <c r="C176" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D176" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E176">
         <v>0.7</v>
       </c>
       <c r="F176" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G176">
         <v>0.4</v>
       </c>
       <c r="I176">
-        <v>1153.76</v>
+        <v>1054.24</v>
       </c>
       <c r="J176">
-        <v>36.653272705176001</v>
+        <v>56.105101372335099</v>
       </c>
       <c r="K176">
-        <v>2607.7199999999998</v>
+        <v>5417.62</v>
       </c>
       <c r="L176">
-        <v>4661.04</v>
+        <v>9799.7999999999993</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
@@ -7138,31 +7138,31 @@
         <v>2000</v>
       </c>
       <c r="C177" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E177">
         <v>0.7</v>
       </c>
       <c r="F177" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G177">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I177">
-        <v>1156.72</v>
+        <v>1065.68</v>
       </c>
       <c r="J177">
-        <v>35.606201707006001</v>
+        <v>72.264359126750705</v>
       </c>
       <c r="K177">
-        <v>2075.66</v>
+        <v>4744.1400000000003</v>
       </c>
       <c r="L177">
-        <v>4524.68</v>
+        <v>6988.18</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
@@ -7173,48 +7173,48 @@
         <v>2000</v>
       </c>
       <c r="C178" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E178">
         <v>0.8</v>
       </c>
       <c r="F178" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G178">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I178">
-        <v>1160.92</v>
+        <v>1084.08</v>
       </c>
       <c r="J178">
-        <v>31.3973502066655</v>
+        <v>27.706923322519899</v>
       </c>
       <c r="K178">
-        <v>1987.04</v>
+        <v>3879.34</v>
       </c>
       <c r="L178">
-        <v>4304.54</v>
+        <v>6052.58</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B179">
         <v>2000</v>
       </c>
       <c r="C179" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E179">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F179" t="s">
         <v>11</v>
@@ -7223,16 +7223,16 @@
         <v>0.4</v>
       </c>
       <c r="I179">
-        <v>1171.04</v>
+        <v>1089.28</v>
       </c>
       <c r="J179">
-        <v>28.6167503396175</v>
+        <v>19.173982371953901</v>
       </c>
       <c r="K179">
-        <v>2769.34</v>
+        <v>7120.12</v>
       </c>
       <c r="L179">
-        <v>4939.6000000000004</v>
+        <v>12771.38</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
@@ -7243,66 +7243,66 @@
         <v>2000</v>
       </c>
       <c r="C180" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D180" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E180">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F180" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G180">
         <v>0.4</v>
       </c>
       <c r="I180">
-        <v>1171.6400000000001</v>
+        <v>1092.28</v>
       </c>
       <c r="J180">
-        <v>37.9255903052279</v>
+        <v>23.728497634700702</v>
       </c>
       <c r="K180">
-        <v>6333.62</v>
+        <v>5153.32</v>
       </c>
       <c r="L180">
-        <v>9065.24</v>
+        <v>9034.2800000000007</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B181">
         <v>2000</v>
       </c>
       <c r="C181" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E181">
         <v>0.7</v>
       </c>
       <c r="F181" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G181">
         <v>0.4</v>
       </c>
       <c r="I181">
-        <v>1176.2</v>
+        <v>1106.1600000000001</v>
       </c>
       <c r="J181">
-        <v>36.582509481991501</v>
+        <v>40.630707599056102</v>
       </c>
       <c r="K181">
-        <v>5688.28</v>
+        <v>4249.3</v>
       </c>
       <c r="L181">
-        <v>9226.7999999999993</v>
+        <v>7096.2</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
@@ -7319,30 +7319,30 @@
         <v>10</v>
       </c>
       <c r="E182">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F182" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G182">
         <v>0.4</v>
       </c>
       <c r="I182">
-        <v>1178.3599999999999</v>
+        <v>1134.1600000000001</v>
       </c>
       <c r="J182">
-        <v>11.0467370748108</v>
+        <v>10.857918769266901</v>
       </c>
       <c r="K182">
-        <v>6131.06</v>
+        <v>7143.92</v>
       </c>
       <c r="L182">
-        <v>13328.96</v>
+        <v>13625.14</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B183">
         <v>2000</v>
@@ -7357,27 +7357,27 @@
         <v>0.7</v>
       </c>
       <c r="F183" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G183">
         <v>0.4</v>
       </c>
       <c r="I183">
-        <v>1184.96</v>
+        <v>1140.48</v>
       </c>
       <c r="J183">
-        <v>9.5936645761669102</v>
+        <v>12.7220124194248</v>
       </c>
       <c r="K183">
-        <v>3372.14</v>
+        <v>5136.66</v>
       </c>
       <c r="L183">
-        <v>6021.2</v>
+        <v>10044.64</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B184">
         <v>2000</v>
@@ -7392,27 +7392,27 @@
         <v>0.8</v>
       </c>
       <c r="F184" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G184">
         <v>0.4</v>
       </c>
       <c r="I184">
-        <v>1187.28</v>
+        <v>1147.8</v>
       </c>
       <c r="J184">
-        <v>13.1134129806088</v>
+        <v>17.791008965204799</v>
       </c>
       <c r="K184">
-        <v>7047.92</v>
+        <v>3931.72</v>
       </c>
       <c r="L184">
-        <v>11950.82</v>
+        <v>7237.44</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B185">
         <v>2000</v>
@@ -7421,28 +7421,28 @@
         <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E185">
         <v>0.7</v>
       </c>
       <c r="F185" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G185">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I185">
-        <v>1191.08</v>
+        <v>1152.68</v>
       </c>
       <c r="J185">
-        <v>29.832090104449598</v>
+        <v>12.2677463292978</v>
       </c>
       <c r="K185">
-        <v>2804.86</v>
+        <v>5250.52</v>
       </c>
       <c r="L185">
-        <v>5709.22</v>
+        <v>10531.34</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
@@ -7456,28 +7456,28 @@
         <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E186">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F186" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G186">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I186">
-        <v>1191.32</v>
+        <v>1158.6400000000001</v>
       </c>
       <c r="J186">
-        <v>13.6505531023471</v>
+        <v>13.789503254287199</v>
       </c>
       <c r="K186">
-        <v>5387.78</v>
+        <v>4977.42</v>
       </c>
       <c r="L186">
-        <v>11901.18</v>
+        <v>10297.98</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
@@ -7497,22 +7497,22 @@
         <v>0.8</v>
       </c>
       <c r="F187" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G187">
         <v>0.4</v>
       </c>
       <c r="I187">
-        <v>1194</v>
+        <v>1161.5999999999999</v>
       </c>
       <c r="J187">
-        <v>10.866462165764901</v>
+        <v>11.019981851164699</v>
       </c>
       <c r="K187">
-        <v>2860.04</v>
+        <v>4399.26</v>
       </c>
       <c r="L187">
-        <v>6117.94</v>
+        <v>7230.6</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
@@ -7529,60 +7529,60 @@
         <v>10</v>
       </c>
       <c r="E188">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F188" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G188">
         <v>0.4</v>
       </c>
       <c r="I188">
-        <v>1195.1199999999999</v>
+        <v>1167.48</v>
       </c>
       <c r="J188">
-        <v>13.435237251347599</v>
+        <v>14.4599308435414</v>
       </c>
       <c r="K188">
-        <v>5243.06</v>
+        <v>4908.08</v>
       </c>
       <c r="L188">
-        <v>13040.52</v>
+        <v>10372.299999999999</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B189">
         <v>2000</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E189">
         <v>0.8</v>
       </c>
       <c r="F189" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G189">
         <v>0.4</v>
       </c>
       <c r="I189">
-        <v>1195.8399999999999</v>
+        <v>1171.04</v>
       </c>
       <c r="J189">
-        <v>11.783649689294</v>
+        <v>28.6167503396175</v>
       </c>
       <c r="K189">
-        <v>5122.08</v>
+        <v>2769.34</v>
       </c>
       <c r="L189">
-        <v>12562.22</v>
+        <v>4939.6000000000004</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
@@ -7593,71 +7593,71 @@
         <v>2000</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D190" t="s">
         <v>15</v>
       </c>
       <c r="E190">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F190" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G190">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I190">
-        <v>1196.52</v>
+        <v>1171.1600000000001</v>
       </c>
       <c r="J190">
-        <v>12.2233219707246</v>
+        <v>21.1474442900318</v>
       </c>
       <c r="K190">
-        <v>3134.36</v>
+        <v>2494.1</v>
       </c>
       <c r="L190">
-        <v>5697.76</v>
+        <v>4765.42</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B191">
         <v>2000</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D191" t="s">
         <v>15</v>
       </c>
       <c r="E191">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F191" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G191">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I191">
-        <v>1197.3599999999999</v>
+        <v>1177.2</v>
       </c>
       <c r="J191">
-        <v>10.899100880347801</v>
+        <v>19.709895991607802</v>
       </c>
       <c r="K191">
-        <v>5947.42</v>
+        <v>2121</v>
       </c>
       <c r="L191">
-        <v>11919.18</v>
+        <v>4721.22</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B192">
         <v>2000</v>
@@ -7666,7 +7666,7 @@
         <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E192">
         <v>0.7</v>
@@ -7675,24 +7675,24 @@
         <v>11</v>
       </c>
       <c r="G192">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I192">
-        <v>1197.52</v>
+        <v>1191.08</v>
       </c>
       <c r="J192">
-        <v>14.060213369647</v>
+        <v>29.832090104449598</v>
       </c>
       <c r="K192">
-        <v>6119.98</v>
+        <v>2804.86</v>
       </c>
       <c r="L192">
-        <v>11973.74</v>
+        <v>5709.22</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B193">
         <v>2000</v>
@@ -7701,7 +7701,7 @@
         <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E193">
         <v>0.7</v>
@@ -7710,19 +7710,19 @@
         <v>11</v>
       </c>
       <c r="G193">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I193">
-        <v>1198.72</v>
+        <v>1191.32</v>
       </c>
       <c r="J193">
-        <v>12.1310180941254</v>
+        <v>13.6505531023471</v>
       </c>
       <c r="K193">
-        <v>2664.48</v>
+        <v>5387.78</v>
       </c>
       <c r="L193">
-        <v>5739.96</v>
+        <v>11901.18</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
@@ -7736,28 +7736,28 @@
         <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E194">
         <v>0.7</v>
       </c>
       <c r="F194" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G194">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I194">
-        <v>1199.52</v>
+        <v>1196.52</v>
       </c>
       <c r="J194">
-        <v>15.806631519713401</v>
+        <v>12.2233219707246</v>
       </c>
       <c r="K194">
-        <v>2920.04</v>
+        <v>3134.36</v>
       </c>
       <c r="L194">
-        <v>5991.86</v>
+        <v>5697.76</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
@@ -7771,28 +7771,28 @@
         <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E195">
         <v>0.7</v>
       </c>
       <c r="F195" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G195">
         <v>0.4</v>
       </c>
       <c r="I195">
-        <v>1201.1600000000001</v>
+        <v>1197.1600000000001</v>
       </c>
       <c r="J195">
-        <v>14.294558405211401</v>
+        <v>14.8004864784911</v>
       </c>
       <c r="K195">
-        <v>4714.28</v>
+        <v>4972.4399999999996</v>
       </c>
       <c r="L195">
-        <v>11048.96</v>
+        <v>9808.1</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
@@ -7806,28 +7806,28 @@
         <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E196">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F196" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G196">
         <v>0.2</v>
       </c>
       <c r="I196">
-        <v>1201.3599999999999</v>
+        <v>1197.3599999999999</v>
       </c>
       <c r="J196">
-        <v>13.448806638508801</v>
+        <v>10.899100880347801</v>
       </c>
       <c r="K196">
-        <v>7581.6</v>
+        <v>5947.42</v>
       </c>
       <c r="L196">
-        <v>13894.36</v>
+        <v>11919.18</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
@@ -7841,45 +7841,45 @@
         <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E197">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F197" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G197">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I197">
-        <v>1201.68</v>
+        <v>1197.52</v>
       </c>
       <c r="J197">
-        <v>11.477700118054999</v>
+        <v>14.060213369647</v>
       </c>
       <c r="K197">
-        <v>6378.6</v>
+        <v>6119.98</v>
       </c>
       <c r="L197">
-        <v>13838.3</v>
+        <v>11973.74</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B198">
         <v>2000</v>
       </c>
       <c r="C198" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E198">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F198" t="s">
         <v>11</v>
@@ -7888,16 +7888,16 @@
         <v>0.4</v>
       </c>
       <c r="I198">
-        <v>1203.1199999999999</v>
+        <v>1198.72</v>
       </c>
       <c r="J198">
-        <v>15.6775508291314</v>
+        <v>12.1310180941254</v>
       </c>
       <c r="K198">
-        <v>4952.12</v>
+        <v>2664.48</v>
       </c>
       <c r="L198">
-        <v>9212.92</v>
+        <v>5739.96</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
@@ -7911,28 +7911,28 @@
         <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E199">
         <v>0.7</v>
       </c>
       <c r="F199" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G199">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I199">
-        <v>1203.24</v>
+        <v>1199.8399999999999</v>
       </c>
       <c r="J199">
-        <v>14.630871470968501</v>
+        <v>12.2692461056089</v>
       </c>
       <c r="K199">
-        <v>2496.1799999999998</v>
+        <v>3173.18</v>
       </c>
       <c r="L199">
-        <v>5710.94</v>
+        <v>6891.62</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
@@ -7946,10 +7946,10 @@
         <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E200">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F200" t="s">
         <v>12</v>
@@ -7958,16 +7958,16 @@
         <v>0.4</v>
       </c>
       <c r="I200">
-        <v>1204.48</v>
+        <v>1201.1600000000001</v>
       </c>
       <c r="J200">
-        <v>11.260976867039499</v>
+        <v>14.294558405211401</v>
       </c>
       <c r="K200">
-        <v>7907.3</v>
+        <v>4714.28</v>
       </c>
       <c r="L200">
-        <v>15164.36</v>
+        <v>11048.96</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
@@ -7981,33 +7981,33 @@
         <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E201">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F201" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G201">
         <v>0.2</v>
       </c>
       <c r="I201">
-        <v>1204.8</v>
+        <v>1201.3599999999999</v>
       </c>
       <c r="J201">
-        <v>13.0721077106945</v>
+        <v>13.448806638508801</v>
       </c>
       <c r="K201">
-        <v>4883.6400000000003</v>
+        <v>7581.6</v>
       </c>
       <c r="L201">
-        <v>9943.9</v>
+        <v>13894.36</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B202">
         <v>2000</v>
@@ -8016,33 +8016,33 @@
         <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E202">
         <v>0.8</v>
       </c>
       <c r="F202" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G202">
         <v>0.2</v>
       </c>
       <c r="I202">
-        <v>1204.8399999999999</v>
+        <v>1201.68</v>
       </c>
       <c r="J202">
-        <v>15.6924950215063</v>
+        <v>11.477700118054999</v>
       </c>
       <c r="K202">
-        <v>2974.42</v>
+        <v>6378.6</v>
       </c>
       <c r="L202">
-        <v>5727.08</v>
+        <v>13838.3</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B203">
         <v>2000</v>
@@ -8051,28 +8051,28 @@
         <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E203">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F203" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G203">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I203">
-        <v>1204.96</v>
+        <v>1202.3599999999999</v>
       </c>
       <c r="J203">
-        <v>10.8239733924284</v>
+        <v>14.569502393698899</v>
       </c>
       <c r="K203">
-        <v>3204</v>
+        <v>4620.1400000000003</v>
       </c>
       <c r="L203">
-        <v>6060.68</v>
+        <v>9785.56</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
@@ -8086,33 +8086,33 @@
         <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E204">
         <v>0.8</v>
       </c>
       <c r="F204" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G204">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I204">
-        <v>1205.6400000000001</v>
+        <v>1202.52</v>
       </c>
       <c r="J204">
-        <v>13.651021939767</v>
+        <v>14.493088007736601</v>
       </c>
       <c r="K204">
-        <v>6775.08</v>
+        <v>4601.5600000000004</v>
       </c>
       <c r="L204">
-        <v>15027.7</v>
+        <v>9922.56</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B205">
         <v>2000</v>
@@ -8121,28 +8121,28 @@
         <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E205">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F205" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G205">
         <v>0.2</v>
       </c>
       <c r="I205">
-        <v>1206.8</v>
+        <v>1202.5999999999999</v>
       </c>
       <c r="J205">
-        <v>11.805083650698901</v>
+        <v>11.934822998268499</v>
       </c>
       <c r="K205">
-        <v>3025.34</v>
+        <v>5386.88</v>
       </c>
       <c r="L205">
-        <v>5719.8</v>
+        <v>9720.74</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
@@ -8153,31 +8153,31 @@
         <v>2000</v>
       </c>
       <c r="C206" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D206" t="s">
         <v>15</v>
       </c>
       <c r="E206">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F206" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G206">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I206">
-        <v>1207.2</v>
+        <v>1203.1199999999999</v>
       </c>
       <c r="J206">
-        <v>14.505171491575</v>
+        <v>15.6775508291314</v>
       </c>
       <c r="K206">
-        <v>4877.0600000000004</v>
+        <v>4952.12</v>
       </c>
       <c r="L206">
-        <v>10048.84</v>
+        <v>9212.92</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
@@ -8191,33 +8191,33 @@
         <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E207">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F207" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G207">
         <v>0.4</v>
       </c>
       <c r="I207">
-        <v>1207.24</v>
+        <v>1203.24</v>
       </c>
       <c r="J207">
-        <v>11.550861439736799</v>
+        <v>14.630871470968501</v>
       </c>
       <c r="K207">
-        <v>2753.6</v>
+        <v>2496.1799999999998</v>
       </c>
       <c r="L207">
-        <v>5721.94</v>
+        <v>5710.94</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B208">
         <v>2000</v>
@@ -8226,7 +8226,7 @@
         <v>9</v>
       </c>
       <c r="D208" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E208">
         <v>0.8</v>
@@ -8238,16 +8238,16 @@
         <v>0.4</v>
       </c>
       <c r="I208">
-        <v>1207.48</v>
+        <v>1204.48</v>
       </c>
       <c r="J208">
-        <v>15.6451142533379</v>
+        <v>11.260976867039499</v>
       </c>
       <c r="K208">
-        <v>2783.58</v>
+        <v>7907.3</v>
       </c>
       <c r="L208">
-        <v>5629.56</v>
+        <v>15164.36</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
@@ -8261,28 +8261,28 @@
         <v>9</v>
       </c>
       <c r="D209" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E209">
         <v>0.8</v>
       </c>
       <c r="F209" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G209">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I209">
-        <v>1208.8</v>
+        <v>1204.52</v>
       </c>
       <c r="J209">
-        <v>13.5823414770797</v>
+        <v>11.7902332462084</v>
       </c>
       <c r="K209">
-        <v>5672.32</v>
+        <v>4468.68</v>
       </c>
       <c r="L209">
-        <v>10221.56</v>
+        <v>9922.98</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
@@ -8296,33 +8296,33 @@
         <v>9</v>
       </c>
       <c r="D210" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E210">
         <v>0.8</v>
       </c>
       <c r="F210" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G210">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I210">
-        <v>1210.28</v>
+        <v>1204.68</v>
       </c>
       <c r="J210">
-        <v>11.6069634271845</v>
+        <v>13.5269213053081</v>
       </c>
       <c r="K210">
-        <v>5363.36</v>
+        <v>4703.08</v>
       </c>
       <c r="L210">
-        <v>10101.6</v>
+        <v>9856.06</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B211">
         <v>2000</v>
@@ -8331,28 +8331,28 @@
         <v>9</v>
       </c>
       <c r="D211" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E211">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F211" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G211">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I211">
-        <v>1210.56</v>
+        <v>1204.8399999999999</v>
       </c>
       <c r="J211">
-        <v>14.3779831687201</v>
+        <v>15.6924950215063</v>
       </c>
       <c r="K211">
-        <v>4865.22</v>
+        <v>2974.42</v>
       </c>
       <c r="L211">
-        <v>10102.16</v>
+        <v>5727.08</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
@@ -8366,28 +8366,28 @@
         <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E212">
         <v>0.7</v>
       </c>
       <c r="F212" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G212">
         <v>0.4</v>
       </c>
       <c r="I212">
-        <v>1210.96</v>
+        <v>1205.56</v>
       </c>
       <c r="J212">
-        <v>12.682208009648701</v>
+        <v>15.9162307095618</v>
       </c>
       <c r="K212">
-        <v>5308.68</v>
+        <v>4665.88</v>
       </c>
       <c r="L212">
-        <v>11062.12</v>
+        <v>9747.14</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
@@ -8401,28 +8401,28 @@
         <v>9</v>
       </c>
       <c r="D213" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E213">
         <v>0.8</v>
       </c>
       <c r="F213" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G213">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I213">
-        <v>1211.68</v>
+        <v>1205.6400000000001</v>
       </c>
       <c r="J213">
-        <v>9.2378352442550007</v>
+        <v>13.651021939767</v>
       </c>
       <c r="K213">
-        <v>6693.58</v>
+        <v>6775.08</v>
       </c>
       <c r="L213">
-        <v>14487.98</v>
+        <v>15027.7</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
@@ -8436,33 +8436,33 @@
         <v>9</v>
       </c>
       <c r="D214" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E214">
         <v>0.7</v>
       </c>
       <c r="F214" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G214">
         <v>0.2</v>
       </c>
       <c r="I214">
-        <v>1212.2</v>
+        <v>1206.76</v>
       </c>
       <c r="J214">
-        <v>12.9321305282617</v>
+        <v>12.8678824986864</v>
       </c>
       <c r="K214">
-        <v>2940.12</v>
+        <v>3213.58</v>
       </c>
       <c r="L214">
-        <v>5748.26</v>
+        <v>6875.8</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B215">
         <v>2000</v>
@@ -8471,28 +8471,28 @@
         <v>9</v>
       </c>
       <c r="D215" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E215">
         <v>0.8</v>
       </c>
       <c r="F215" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G215">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I215">
-        <v>1212.8800000000001</v>
+        <v>1206.8</v>
       </c>
       <c r="J215">
-        <v>9.2620516085800304</v>
+        <v>11.805083650698901</v>
       </c>
       <c r="K215">
-        <v>6542.36</v>
+        <v>3025.34</v>
       </c>
       <c r="L215">
-        <v>13595.02</v>
+        <v>5719.8</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
@@ -8506,28 +8506,28 @@
         <v>9</v>
       </c>
       <c r="D216" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E216">
         <v>0.8</v>
       </c>
       <c r="F216" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G216">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I216">
-        <v>1212.92</v>
+        <v>1207.24</v>
       </c>
       <c r="J216">
-        <v>15.5702793809231</v>
+        <v>11.550861439736799</v>
       </c>
       <c r="K216">
-        <v>2285.6999999999998</v>
+        <v>2753.6</v>
       </c>
       <c r="L216">
-        <v>5281.62</v>
+        <v>5721.94</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
@@ -8541,28 +8541,28 @@
         <v>9</v>
       </c>
       <c r="D217" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E217">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F217" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G217">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I217">
-        <v>1215.1199999999999</v>
+        <v>1207.48</v>
       </c>
       <c r="J217">
-        <v>15.492759599245</v>
+        <v>15.6451142533379</v>
       </c>
       <c r="K217">
-        <v>3310.1</v>
+        <v>2783.58</v>
       </c>
       <c r="L217">
-        <v>5783.94</v>
+        <v>5629.56</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
@@ -8576,98 +8576,98 @@
         <v>9</v>
       </c>
       <c r="D218" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E218">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F218" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G218">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I218">
-        <v>1216.44</v>
+        <v>1208.4000000000001</v>
       </c>
       <c r="J218">
-        <v>11.470239753379101</v>
+        <v>12.837445228704899</v>
       </c>
       <c r="K218">
-        <v>2547.7600000000002</v>
+        <v>3210.96</v>
       </c>
       <c r="L218">
-        <v>5306</v>
+        <v>6912.68</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B219">
         <v>2000</v>
       </c>
       <c r="C219" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D219" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E219">
         <v>0.8</v>
       </c>
       <c r="F219" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G219">
         <v>0.4</v>
       </c>
       <c r="I219">
-        <v>1216.6400000000001</v>
+        <v>1208.8800000000001</v>
       </c>
       <c r="J219">
-        <v>23.273813611009199</v>
+        <v>12.2713324459897</v>
       </c>
       <c r="K219">
-        <v>2414.2199999999998</v>
+        <v>4633.8</v>
       </c>
       <c r="L219">
-        <v>4812.2</v>
+        <v>9867.32</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B220">
         <v>2000</v>
       </c>
       <c r="C220" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D220" t="s">
         <v>15</v>
       </c>
       <c r="E220">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F220" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G220">
         <v>0.4</v>
       </c>
       <c r="I220">
-        <v>1217.4000000000001</v>
+        <v>1209.24</v>
       </c>
       <c r="J220">
-        <v>13.1711806608215</v>
+        <v>12.6673754187676</v>
       </c>
       <c r="K220">
-        <v>3110.8</v>
+        <v>5143.68</v>
       </c>
       <c r="L220">
-        <v>5815.02</v>
+        <v>10027.98</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
@@ -8681,103 +8681,103 @@
         <v>9</v>
       </c>
       <c r="D221" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E221">
         <v>0.8</v>
       </c>
       <c r="F221" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G221">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I221">
-        <v>1217.44</v>
+        <v>1209.72</v>
       </c>
       <c r="J221">
-        <v>16.287614926685801</v>
+        <v>13.885301581168401</v>
       </c>
       <c r="K221">
-        <v>2811.56</v>
+        <v>3013.82</v>
       </c>
       <c r="L221">
-        <v>5356.1</v>
+        <v>6845.26</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B222">
         <v>2000</v>
       </c>
       <c r="C222" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D222" t="s">
         <v>15</v>
       </c>
       <c r="E222">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F222" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G222">
         <v>0.4</v>
       </c>
       <c r="I222">
-        <v>1217.72</v>
+        <v>1212.2</v>
       </c>
       <c r="J222">
-        <v>13.368679815149999</v>
+        <v>12.7577427470536</v>
       </c>
       <c r="K222">
-        <v>2633.6</v>
+        <v>4859.9799999999996</v>
       </c>
       <c r="L222">
-        <v>5745</v>
+        <v>9856.76</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B223">
         <v>2000</v>
       </c>
       <c r="C223" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D223" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E223">
         <v>0.8</v>
       </c>
       <c r="F223" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G223">
         <v>0.4</v>
       </c>
       <c r="I223">
-        <v>1217.8399999999999</v>
+        <v>1212.44</v>
       </c>
       <c r="J223">
-        <v>13.832367837792599</v>
+        <v>12.504655133189299</v>
       </c>
       <c r="K223">
-        <v>4761.32</v>
+        <v>3611.56</v>
       </c>
       <c r="L223">
-        <v>9340.34</v>
+        <v>6846.26</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B224">
         <v>2000</v>
@@ -8786,28 +8786,28 @@
         <v>9</v>
       </c>
       <c r="D224" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E224">
         <v>0.8</v>
       </c>
       <c r="F224" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G224">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I224">
-        <v>1218.5999999999999</v>
+        <v>1214</v>
       </c>
       <c r="J224">
-        <v>15.749285698088</v>
+        <v>11.7029910706622</v>
       </c>
       <c r="K224">
-        <v>4699.16</v>
+        <v>3627.32</v>
       </c>
       <c r="L224">
-        <v>10721.66</v>
+        <v>6965.88</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
@@ -8821,33 +8821,33 @@
         <v>9</v>
       </c>
       <c r="D225" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E225">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F225" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G225">
         <v>0.4</v>
       </c>
       <c r="I225">
-        <v>1218.8800000000001</v>
+        <v>1214.04</v>
       </c>
       <c r="J225">
-        <v>12.624800988530399</v>
+        <v>14.3971663878695</v>
       </c>
       <c r="K225">
-        <v>2628.34</v>
+        <v>3599.5</v>
       </c>
       <c r="L225">
-        <v>5294.08</v>
+        <v>6912.1</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B226">
         <v>2000</v>
@@ -8856,28 +8856,28 @@
         <v>9</v>
       </c>
       <c r="D226" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E226">
         <v>0.8</v>
       </c>
       <c r="F226" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G226">
         <v>0.4</v>
       </c>
       <c r="I226">
-        <v>1218.8800000000001</v>
+        <v>1215.6400000000001</v>
       </c>
       <c r="J226">
-        <v>15.3109633922885</v>
+        <v>12.2421566727435</v>
       </c>
       <c r="K226">
-        <v>5647.34</v>
+        <v>3416.74</v>
       </c>
       <c r="L226">
-        <v>10866.62</v>
+        <v>6919.88</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
@@ -8891,28 +8891,28 @@
         <v>9</v>
       </c>
       <c r="D227" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E227">
         <v>0.8</v>
       </c>
       <c r="F227" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G227">
         <v>0.4</v>
       </c>
       <c r="I227">
-        <v>1218.92</v>
+        <v>1218.24</v>
       </c>
       <c r="J227">
-        <v>14.935648630039401</v>
+        <v>14.9486588027153</v>
       </c>
       <c r="K227">
-        <v>5471.54</v>
+        <v>4541.68</v>
       </c>
       <c r="L227">
-        <v>10842.72</v>
+        <v>10017.34</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
@@ -8926,28 +8926,28 @@
         <v>9</v>
       </c>
       <c r="D228" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E228">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F228" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G228">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I228">
-        <v>1219.1199999999999</v>
+        <v>1218.8800000000001</v>
       </c>
       <c r="J228">
-        <v>11.5527312787929</v>
+        <v>15.3109633922885</v>
       </c>
       <c r="K228">
-        <v>6164.92</v>
+        <v>5647.34</v>
       </c>
       <c r="L228">
-        <v>12965.66</v>
+        <v>10866.62</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
@@ -8961,63 +8961,63 @@
         <v>9</v>
       </c>
       <c r="D229" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E229">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F229" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G229">
         <v>0.4</v>
       </c>
       <c r="I229">
-        <v>1219.24</v>
+        <v>1218.92</v>
       </c>
       <c r="J229">
-        <v>13.4930500629027</v>
+        <v>14.935648630039401</v>
       </c>
       <c r="K229">
-        <v>5971.48</v>
+        <v>5471.54</v>
       </c>
       <c r="L229">
-        <v>12961.32</v>
+        <v>10842.72</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B230">
         <v>2000</v>
       </c>
       <c r="C230" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D230" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E230">
         <v>0.8</v>
       </c>
       <c r="F230" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G230">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I230">
-        <v>1220.44</v>
+        <v>1220.8800000000001</v>
       </c>
       <c r="J230">
-        <v>16.274102125770199</v>
+        <v>14.233256830395399</v>
       </c>
       <c r="K230">
-        <v>2290.62</v>
+        <v>4453.42</v>
       </c>
       <c r="L230">
-        <v>4970.5200000000004</v>
+        <v>10855.4</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
@@ -9031,28 +9031,28 @@
         <v>9</v>
       </c>
       <c r="D231" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E231">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F231" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G231">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I231">
-        <v>1220.76</v>
+        <v>1220.92</v>
       </c>
       <c r="J231">
-        <v>13.5875825664464</v>
+        <v>14.3789290282691</v>
       </c>
       <c r="K231">
-        <v>4167.22</v>
+        <v>5046.0600000000004</v>
       </c>
       <c r="L231">
-        <v>10932.22</v>
+        <v>9685.4599999999991</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
@@ -9066,28 +9066,28 @@
         <v>9</v>
       </c>
       <c r="D232" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E232">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F232" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G232">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I232">
-        <v>1220.8800000000001</v>
+        <v>1220.92</v>
       </c>
       <c r="J232">
-        <v>14.233256830395399</v>
+        <v>13.595352146965499</v>
       </c>
       <c r="K232">
-        <v>4453.42</v>
+        <v>4321.4799999999996</v>
       </c>
       <c r="L232">
-        <v>10855.4</v>
+        <v>9836.0400000000009</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
@@ -9098,31 +9098,31 @@
         <v>2000</v>
       </c>
       <c r="C233" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D233" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E233">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F233" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G233">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I233">
-        <v>1221.08</v>
+        <v>1221.52</v>
       </c>
       <c r="J233">
-        <v>11.7249136457374</v>
+        <v>13.656119507385601</v>
       </c>
       <c r="K233">
-        <v>4517.68</v>
+        <v>4176.88</v>
       </c>
       <c r="L233">
-        <v>9252.06</v>
+        <v>9745.0400000000009</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
@@ -9136,7 +9136,7 @@
         <v>9</v>
       </c>
       <c r="D234" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E234">
         <v>0.7</v>
@@ -9171,7 +9171,7 @@
         <v>9</v>
       </c>
       <c r="D235" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E235">
         <v>0.8</v>
@@ -9206,28 +9206,28 @@
         <v>9</v>
       </c>
       <c r="D236" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E236">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F236" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G236">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I236">
-        <v>1223.04</v>
+        <v>1221.8399999999999</v>
       </c>
       <c r="J236">
-        <v>12.1539458613242</v>
+        <v>13.7220406645658</v>
       </c>
       <c r="K236">
-        <v>6547.52</v>
+        <v>4705.76</v>
       </c>
       <c r="L236">
-        <v>12676.3</v>
+        <v>9848.7000000000007</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
@@ -9241,28 +9241,28 @@
         <v>9</v>
       </c>
       <c r="D237" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E237">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F237" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G237">
         <v>0.4</v>
       </c>
       <c r="I237">
-        <v>1223.2</v>
+        <v>1222.72</v>
       </c>
       <c r="J237">
-        <v>14.4554487996741</v>
+        <v>10.9599999999999</v>
       </c>
       <c r="K237">
-        <v>5276.92</v>
+        <v>4382.58</v>
       </c>
       <c r="L237">
-        <v>12356.24</v>
+        <v>9920.7000000000007</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
@@ -9276,28 +9276,28 @@
         <v>9</v>
       </c>
       <c r="D238" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E238">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F238" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G238">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I238">
-        <v>1223.2</v>
+        <v>1222.8800000000001</v>
       </c>
       <c r="J238">
-        <v>11.634431657799199</v>
+        <v>13.834218445578999</v>
       </c>
       <c r="K238">
-        <v>5613.78</v>
+        <v>4889.18</v>
       </c>
       <c r="L238">
-        <v>10305.18</v>
+        <v>10015.94</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.25">
@@ -9311,7 +9311,7 @@
         <v>9</v>
       </c>
       <c r="D239" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E239">
         <v>0.7</v>
@@ -9320,24 +9320,24 @@
         <v>11</v>
       </c>
       <c r="G239">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I239">
-        <v>1224.1600000000001</v>
+        <v>1223.04</v>
       </c>
       <c r="J239">
-        <v>14.885375373164001</v>
+        <v>12.1539458613242</v>
       </c>
       <c r="K239">
-        <v>5761.64</v>
+        <v>6547.52</v>
       </c>
       <c r="L239">
-        <v>12461.42</v>
+        <v>12676.3</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B240">
         <v>2000</v>
@@ -9346,28 +9346,28 @@
         <v>9</v>
       </c>
       <c r="D240" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E240">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F240" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G240">
         <v>0.4</v>
       </c>
       <c r="I240">
-        <v>1224.56</v>
+        <v>1223.2</v>
       </c>
       <c r="J240">
-        <v>16.0151927868508</v>
+        <v>14.4554487996741</v>
       </c>
       <c r="K240">
-        <v>3035.58</v>
+        <v>5276.92</v>
       </c>
       <c r="L240">
-        <v>5633.62</v>
+        <v>12356.24</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.25">
@@ -9381,28 +9381,28 @@
         <v>9</v>
       </c>
       <c r="D241" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E241">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F241" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G241">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I241">
-        <v>1224.68</v>
+        <v>1224.1600000000001</v>
       </c>
       <c r="J241">
-        <v>13.8368204440181</v>
+        <v>14.885375373164001</v>
       </c>
       <c r="K241">
-        <v>4367.8599999999997</v>
+        <v>5761.64</v>
       </c>
       <c r="L241">
-        <v>9600.44</v>
+        <v>12461.42</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
@@ -9416,28 +9416,28 @@
         <v>9</v>
       </c>
       <c r="D242" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E242">
         <v>0.7</v>
       </c>
       <c r="F242" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G242">
         <v>0.4</v>
       </c>
       <c r="I242">
-        <v>1224.76</v>
+        <v>1225.52</v>
       </c>
       <c r="J242">
-        <v>13.924884200595701</v>
+        <v>11.1825578469328</v>
       </c>
       <c r="K242">
-        <v>2634.46</v>
+        <v>2438.34</v>
       </c>
       <c r="L242">
-        <v>5213.3</v>
+        <v>5078.7</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.25">
@@ -9451,28 +9451,28 @@
         <v>9</v>
       </c>
       <c r="D243" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E243">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F243" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G243">
         <v>0.2</v>
       </c>
       <c r="I243">
-        <v>1225.8</v>
+        <v>1226</v>
       </c>
       <c r="J243">
-        <v>11.622392180614099</v>
+        <v>15.8694675399018</v>
       </c>
       <c r="K243">
-        <v>4864.68</v>
+        <v>4537.22</v>
       </c>
       <c r="L243">
-        <v>9580.52</v>
+        <v>9772.7800000000007</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.25">
@@ -9486,33 +9486,33 @@
         <v>9</v>
       </c>
       <c r="D244" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E244">
         <v>0.8</v>
       </c>
       <c r="F244" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G244">
         <v>0.4</v>
       </c>
       <c r="I244">
-        <v>1227.72</v>
+        <v>1226.96</v>
       </c>
       <c r="J244">
-        <v>12.598476098322299</v>
+        <v>14.188671537533001</v>
       </c>
       <c r="K244">
-        <v>2548.9</v>
+        <v>2472.56</v>
       </c>
       <c r="L244">
-        <v>5186.22</v>
+        <v>5019.96</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B245">
         <v>2000</v>
@@ -9521,28 +9521,28 @@
         <v>9</v>
       </c>
       <c r="D245" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E245">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F245" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G245">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I245">
-        <v>1227.8</v>
+        <v>1227.72</v>
       </c>
       <c r="J245">
-        <v>9.4085067890712502</v>
+        <v>12.598476098322299</v>
       </c>
       <c r="K245">
-        <v>6140.28</v>
+        <v>2548.9</v>
       </c>
       <c r="L245">
-        <v>11835.58</v>
+        <v>5186.22</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
@@ -9556,28 +9556,28 @@
         <v>9</v>
       </c>
       <c r="D246" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E246">
         <v>0.8</v>
       </c>
       <c r="F246" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G246">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I246">
-        <v>1228.4000000000001</v>
+        <v>1228.2</v>
       </c>
       <c r="J246">
-        <v>13.4818396370821</v>
+        <v>13.104197800704901</v>
       </c>
       <c r="K246">
-        <v>2803.94</v>
+        <v>2281.46</v>
       </c>
       <c r="L246">
-        <v>5652.14</v>
+        <v>4920.4799999999996</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
@@ -9591,7 +9591,7 @@
         <v>9</v>
       </c>
       <c r="D247" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E247">
         <v>0.7</v>
@@ -9626,7 +9626,7 @@
         <v>9</v>
       </c>
       <c r="D248" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E248">
         <v>0.8</v>
@@ -9661,28 +9661,28 @@
         <v>9</v>
       </c>
       <c r="D249" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E249">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F249" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G249">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I249">
-        <v>1228.92</v>
+        <v>1228.72</v>
       </c>
       <c r="J249">
-        <v>14.058221793669301</v>
+        <v>12.078145553022599</v>
       </c>
       <c r="K249">
-        <v>2535.44</v>
+        <v>2370.6</v>
       </c>
       <c r="L249">
-        <v>5139.3999999999996</v>
+        <v>4917.32</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.25">
@@ -9696,28 +9696,28 @@
         <v>9</v>
       </c>
       <c r="D250" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E250">
         <v>0.7</v>
       </c>
       <c r="F250" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G250">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I250">
-        <v>1229.32</v>
+        <v>1228.8</v>
       </c>
       <c r="J250">
-        <v>12.0506265397281</v>
+        <v>12.7499019604073</v>
       </c>
       <c r="K250">
-        <v>2761.64</v>
+        <v>2406</v>
       </c>
       <c r="L250">
-        <v>5105.34</v>
+        <v>5088.8</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.25">
@@ -9731,28 +9731,28 @@
         <v>9</v>
       </c>
       <c r="D251" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E251">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F251" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G251">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I251">
-        <v>1229.8800000000001</v>
+        <v>1228.92</v>
       </c>
       <c r="J251">
-        <v>16.892175703561598</v>
+        <v>14.058221793669301</v>
       </c>
       <c r="K251">
-        <v>2480.2600000000002</v>
+        <v>2535.44</v>
       </c>
       <c r="L251">
-        <v>5149.28</v>
+        <v>5139.3999999999996</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
@@ -9766,28 +9766,28 @@
         <v>9</v>
       </c>
       <c r="D252" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E252">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F252" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G252">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I252">
-        <v>1229.92</v>
+        <v>1229.32</v>
       </c>
       <c r="J252">
-        <v>14.5435071423642</v>
+        <v>12.0506265397281</v>
       </c>
       <c r="K252">
-        <v>2476.2600000000002</v>
+        <v>2761.64</v>
       </c>
       <c r="L252">
-        <v>5267.82</v>
+        <v>5105.34</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
@@ -9801,28 +9801,28 @@
         <v>9</v>
       </c>
       <c r="D253" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E253">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F253" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G253">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I253">
-        <v>1229.92</v>
+        <v>1229.6400000000001</v>
       </c>
       <c r="J253">
-        <v>13.976895220327</v>
+        <v>12.1963273160406</v>
       </c>
       <c r="K253">
-        <v>2439.84</v>
+        <v>2243.7199999999998</v>
       </c>
       <c r="L253">
-        <v>5470.04</v>
+        <v>5591.64</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.25">
@@ -9836,28 +9836,28 @@
         <v>9</v>
       </c>
       <c r="D254" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E254">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F254" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G254">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I254">
-        <v>1230.56</v>
+        <v>1229.8800000000001</v>
       </c>
       <c r="J254">
-        <v>12.7250304518299</v>
+        <v>16.892175703561598</v>
       </c>
       <c r="K254">
-        <v>2531.96</v>
+        <v>2480.2600000000002</v>
       </c>
       <c r="L254">
-        <v>5128.12</v>
+        <v>5149.28</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
@@ -9871,28 +9871,28 @@
         <v>9</v>
       </c>
       <c r="D255" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E255">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F255" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G255">
         <v>0.2</v>
       </c>
       <c r="I255">
-        <v>1231.48</v>
+        <v>1230.96</v>
       </c>
       <c r="J255">
-        <v>12.2951047169188</v>
+        <v>12.7325724030927</v>
       </c>
       <c r="K255">
-        <v>2637.14</v>
+        <v>2277.8000000000002</v>
       </c>
       <c r="L255">
-        <v>5105.5600000000004</v>
+        <v>5078.62</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
@@ -9906,7 +9906,7 @@
         <v>9</v>
       </c>
       <c r="D256" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E256">
         <v>0.8</v>
@@ -9941,28 +9941,28 @@
         <v>9</v>
       </c>
       <c r="D257" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E257">
         <v>0.7</v>
       </c>
       <c r="F257" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G257">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I257">
-        <v>1232.32</v>
+        <v>1232.44</v>
       </c>
       <c r="J257">
-        <v>13.262639254688301</v>
+        <v>12.9940909647423</v>
       </c>
       <c r="K257">
-        <v>2367.8200000000002</v>
+        <v>2792.96</v>
       </c>
       <c r="L257">
-        <v>5187.32</v>
+        <v>5617.14</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.25">
@@ -9976,7 +9976,7 @@
         <v>9</v>
       </c>
       <c r="D258" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E258">
         <v>0.7</v>

--- a/Experimentos/teste_geral/Dataset6/statistic_average_fitness.xlsx
+++ b/Experimentos/teste_geral/Dataset6/statistic_average_fitness.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\ESCOLA\2ano\2semestre\INTELIGENCIA-ARTIFICIAL\projeto-IA\Experimentos\teste_geral\Dataset6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF54A711-8DFC-4F98-A8A7-0A3854A5675C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFC7981-AA36-46DB-A943-A2FFADD074A3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="2850" windowWidth="14400" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4500" yWindow="1155" windowWidth="23115" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="statistic_average_fitness" sheetId="1" r:id="rId1"/>
@@ -966,7 +966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A131" sqref="A131:L258"/>
     </sheetView>
   </sheetViews>
